--- a/dataimport/skills/Skills.xlsx
+++ b/dataimport/skills/Skills.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" r:id="rId1"/>
     <sheet name="Skill" sheetId="4" r:id="rId2"/>
-    <sheet name="SkillCategories" sheetId="9" r:id="rId3"/>
-    <sheet name="SkillDescriptions" sheetId="5" r:id="rId4"/>
-    <sheet name="Country" sheetId="6" r:id="rId5"/>
-    <sheet name="CountriesSkills" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId4"/>
+    <sheet name="SkillCategories" sheetId="9" r:id="rId5"/>
+    <sheet name="SkillDescriptions" sheetId="5" r:id="rId6"/>
+    <sheet name="Country" sheetId="6" r:id="rId7"/>
+    <sheet name="CountriesSkills" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="811">
   <si>
     <t>Onde atua Indústria de automação. Atividades que desempenha Fabrica, instala e executa a manutenção de peças e conjuntos mecânicos. Realiza a montagem de componentes e sistemas automatizados como controladores programáveis e elementos de controle e movimento pneumático, hidráulico e elétrico. Qualidades fundamentais para o mercado - Espírito de trabalho em equipe. - Busca constante pela atualização tecnológica. - Boa capacidade para ler e interpretar desenhos e projetos. - Conhecimento de normas e procedimentos industriais.</t>
   </si>
@@ -1906,36 +1908,24 @@
     <t>Concentración y precisión - Interpretar planos y dibujos técnicos - Celo para patrimonio de la empresa, evitando el uso indebido de equipos y maquinarias</t>
   </si>
   <si>
-    <t>skill_group_id</t>
-  </si>
-  <si>
     <t>Tecnologias de Manufatura e Engenharias</t>
   </si>
   <si>
     <t>Manufacturing and Engineering Technology</t>
   </si>
   <si>
-    <t>Tecnologías de Fabricación (y Ingeniería)</t>
-  </si>
-  <si>
     <t>Tecnologias da Informação e Comunicação</t>
   </si>
   <si>
     <t>Information and Communication Technology</t>
   </si>
   <si>
-    <t>Tecnología de Información y Comunicación</t>
-  </si>
-  <si>
     <t>Construção e Edificações</t>
   </si>
   <si>
     <t>Construction and Building Technology</t>
   </si>
   <si>
-    <t>Construcción y Tecnología</t>
-  </si>
-  <si>
     <t>Transportes e Logística</t>
   </si>
   <si>
@@ -1951,18 +1941,12 @@
     <t>Creative Arts and Fashion</t>
   </si>
   <si>
-    <t>Artes Creativas y de la moda</t>
-  </si>
-  <si>
     <t>Serviços Pessoais</t>
   </si>
   <si>
     <t>Social and Personal Services</t>
   </si>
   <si>
-    <t>Servicios Personales y Sociales</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -2042,6 +2026,444 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>skill_category_id</t>
+  </si>
+  <si>
+    <t>Tecnologías de la Ingeniería y la Manufactura</t>
+  </si>
+  <si>
+    <t>Tecnologías de la Información y las Comunicaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías dela Construcción</t>
+  </si>
+  <si>
+    <t>Artes Creativas y Moda</t>
+  </si>
+  <si>
+    <t>Servicios Sociales y Personales</t>
+  </si>
+  <si>
+    <t>Polimecánica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cableado de Redes de Información </t>
+  </si>
+  <si>
+    <t>Desafío de Equipos de Manufactura</t>
+  </si>
+  <si>
+    <t>CAD (Ingeniería de Diseño Mecánico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresado CNC </t>
+  </si>
+  <si>
+    <t>IT / Soluciones de software para Negocios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchape de Pisos y Paredes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrónica </t>
+  </si>
+  <si>
+    <t>Mampostería</t>
+  </si>
+  <si>
+    <t>Carpintería de Muebles</t>
+  </si>
+  <si>
+    <t>Pastelería</t>
+  </si>
+  <si>
+    <t>Tecnología Automotriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigeración y Aire Acondicionado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT / Administración de Sistemas de Redes </t>
+  </si>
+  <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilidad </t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnología de Impresión de Medios </t>
+  </si>
+  <si>
+    <t>Control Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas de Drywall y Yesos </t>
+  </si>
+  <si>
+    <t>Peluquería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnología de la Moda </t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>Servicio de Restaurante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salud y Cuidados Sociales </t>
+  </si>
+  <si>
+    <t>Confección de Ropa</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Barsimo</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>Desarrollo de Aplicaciones Móviles</t>
+  </si>
+  <si>
+    <t>cat id</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>ocupacao_br</t>
+  </si>
+  <si>
+    <t>ocupacao_en</t>
+  </si>
+  <si>
+    <t>ocupacao_es</t>
+  </si>
+  <si>
+    <t>Engenharia de Moldes Plásticos</t>
+  </si>
+  <si>
+    <t>Plastic Die Engineering</t>
+  </si>
+  <si>
+    <t>Ingeniería de Moldes Plásticos</t>
+  </si>
+  <si>
+    <t>Tecnologia da Mídia Impressa</t>
+  </si>
+  <si>
+    <t>Print Media Technology</t>
+  </si>
+  <si>
+    <t>Tecnología de Medios Impresos</t>
+  </si>
+  <si>
+    <t>Reparação de Carrocerias de Veículos</t>
+  </si>
+  <si>
+    <t>Autobody Repair</t>
+  </si>
+  <si>
+    <t>Reparación de Carrocerías de Vehículos</t>
+  </si>
+  <si>
+    <t>Manutenção de Aeronaves</t>
+  </si>
+  <si>
+    <t>Aircraft Maintenance</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Aeronaves</t>
+  </si>
+  <si>
+    <t>Eletricidade Industrial</t>
+  </si>
+  <si>
+    <t>Industrial Control</t>
+  </si>
+  <si>
+    <t>Sistemas de Gesso e Drywall</t>
+  </si>
+  <si>
+    <t>Plastering and Drywall Systems</t>
+  </si>
+  <si>
+    <t>Sistema de Yeso y Drywall</t>
+  </si>
+  <si>
+    <t>Pintura e Decoração</t>
+  </si>
+  <si>
+    <t>Painting and Decorating</t>
+  </si>
+  <si>
+    <t>Pintura y Decoración</t>
+  </si>
+  <si>
+    <t>Marcenaria de estruturas</t>
+  </si>
+  <si>
+    <t>Joinery</t>
+  </si>
+  <si>
+    <t>Carpintería</t>
+  </si>
+  <si>
+    <t>Carpintaria</t>
+  </si>
+  <si>
+    <t>Carpentry</t>
+  </si>
+  <si>
+    <t>Cabeleireiro</t>
+  </si>
+  <si>
+    <t>Ladies/Mens Hairdressing</t>
+  </si>
+  <si>
+    <t>Peluquería de Mujeres/Hombres</t>
+  </si>
+  <si>
+    <t>Terapia Estética</t>
+  </si>
+  <si>
+    <t>Beauty Therapy</t>
+  </si>
+  <si>
+    <t>Terapia de Belleza</t>
+  </si>
+  <si>
+    <t>Tecnologia da Moda</t>
+  </si>
+  <si>
+    <t>Fashion Technology</t>
+  </si>
+  <si>
+    <t>Diseño de Modas</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Serviço de Restaurante</t>
+  </si>
+  <si>
+    <t>Restaurant Service</t>
+  </si>
+  <si>
+    <t>Pintura Automotiva</t>
+  </si>
+  <si>
+    <t>Car Painting</t>
+  </si>
+  <si>
+    <t>Pintura de Carros</t>
+  </si>
+  <si>
+    <t>Jardinagem e Paisagismo</t>
+  </si>
+  <si>
+    <t>Landscape Gardening</t>
+  </si>
+  <si>
+    <t>Jardinería</t>
+  </si>
+  <si>
+    <t>Cuidador de Pessoas</t>
+  </si>
+  <si>
+    <t>Health and Social Care</t>
+  </si>
+  <si>
+    <t>Cuidados/ Salud</t>
+  </si>
+  <si>
+    <t>Serralheria</t>
+  </si>
+  <si>
+    <t>Construction Metal Work</t>
+  </si>
+  <si>
+    <t>Trabajo en Construcción de Metal</t>
+  </si>
+  <si>
+    <t>Caldeiraria</t>
+  </si>
+  <si>
+    <t>Sheet Metal Technology</t>
+  </si>
+  <si>
+    <t>Tecnologia de Laminación Metalica</t>
+  </si>
+  <si>
+    <t>Desafio de Aplicativos Móveis</t>
+  </si>
+  <si>
+    <t>Mobile Apps Challenge</t>
+  </si>
+  <si>
+    <t>Desafío de Aplicaciones Móviles</t>
+  </si>
+  <si>
+    <t>Floricultura</t>
+  </si>
+  <si>
+    <t>Floristry</t>
+  </si>
+  <si>
+    <t>Floristeria</t>
+  </si>
+  <si>
+    <t>Modelagem de Protótipos</t>
+  </si>
+  <si>
+    <t>Prototype Modelling</t>
+  </si>
+  <si>
+    <t>Modelado de Prototipo</t>
+  </si>
+  <si>
+    <t>Merchandising Visual e Vitrinismo</t>
+  </si>
+  <si>
+    <t>Visual Merchandising/ Window Dressing</t>
+  </si>
+  <si>
+    <t>Merchandising Visual/ Vitrinismo</t>
+  </si>
+  <si>
+    <t>Confecção de Roupas</t>
+  </si>
+  <si>
+    <t>Clothes Sewing</t>
+  </si>
+  <si>
+    <t>Barismo</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Aplicativos Móveis</t>
+  </si>
+  <si>
+    <t>Bartending</t>
+  </si>
+  <si>
+    <t>Implicala producción de material impreso usando una máquina de impresión offset a hojas, además de una máquina de impresión digital y otros equipos para el finalizado de los productos impresos, la impresión es la responsable de imprimir y producir todo el material en el negocio de la impresión.</t>
+  </si>
+  <si>
+    <t>Esta habilidad usa aplicaciones básicas de electricidad y automatización industrial, instalación de conductos, cajas de control, cables y dispositivos automáticos, aplicando circuitos de control, de fuerza, y automatización industrial, Interfaces Maquina Humano (HMI), lógica programable y comunicaciones industriales.</t>
+  </si>
+  <si>
+    <t>Incorpora el levantamiento de estructuras livianas con láminas de yeso o fibrocemento, incluyendo estructuras flotantes de edificaciones, entrepisos, fachadas, cielos rasos, cubiertas, paredes curvas, acabados Industriales, arte y decoración, molduras en yeso, estructuras en madera y manejo de sistemas acústicos y térmicos.</t>
+  </si>
+  <si>
+    <t>Consiste en cortar, dar color, forma, estilo, al pelo de las personas. Mediante el asesoramiento y el tratamiento profesional de la peluquería se esfuerza por acentuar la apariencia y la personalidad general del cliente.</t>
+  </si>
+  <si>
+    <t>En esta habilidad se desarrollan procesos de creación de prendas de vestir, utilizando diferentes materiales y accesorios, además de máquinas industriales de coser y técnicas de trabajo de mano, para generar un producto acorde con los parámetros y requisitos definidos.</t>
+  </si>
+  <si>
+    <t>Esta habilidad incorpora componentes de planificación de menús, además del proceso de preparación de una variedad de alimentos según las reglas de salud y seguridad y conocimientos relacionados con la administración de una cocina comercial.</t>
+  </si>
+  <si>
+    <t>Implica el servicio de alimentos y bebidas en los restaurantes de alta cocina, bar, cafeterías, hoteles y otros. Deben preparar mesas para el servicio, tomar pedidos, limpiar mezclar y servir bebidas, abrir y servir vinos, calcular las facturas y recibir pagos. Los camareros están obligados a proporcionar un alto nivel para igualar la calidad de la comida que sirven.</t>
+  </si>
+  <si>
+    <t>Comprende una amplia gama de actividades en las que se demuestran habilidades y destrezas, relacionadas con el apoyo al crecimiento y desarrollo, salud física y psicosocial, cuidado durante la enfermedad, recuperación y rehabilitación en los diferentes grupos etáreos.</t>
+  </si>
+  <si>
+    <t>Consiste en desarrollar, modelar y fabricar productos nuevos en 2D y 3D. Cuando se desarrolla un nuevo producto industrial, este se ha diseñado con base en un concepto o prototipo. La forma final del nuevo producto se determina después de exhaustivas pruebas y modificaciones.</t>
+  </si>
+  <si>
+    <t>Desarrollo de aplicaciones móviles abarca el diseño y desarrollo de soluciones de software para dispositivos móviles, como teléfonos inteligentes y tabletas con originalidad, innovación y creatividad.</t>
+  </si>
+  <si>
+    <t>what_they_do</t>
+  </si>
+  <si>
+    <t>Implicala production of printed material using an offset printing sheets , along with a digital printing machine and other equipment to the finished printed products , printing is responsible for print and produce all the material in the printing business .</t>
+  </si>
+  <si>
+    <t>This ability uses basic applications and industrial automation power , installation of ducts , control boxes , cables and automatic devices , applying control circuits , power , and industrial automation , Human Machine Interfaces (HMI ) , programmable logic and industrial communications .</t>
+  </si>
+  <si>
+    <t>Incorporates lifting light structures with drywall or cement , including floating structures of buildings , floors , walls , ceilings , roofs skies , curved walls , industrial finishes, art and decoration, plaster moldings , timber structures and management of acoustic systems and thermal .</t>
+  </si>
+  <si>
+    <t>It consists of cutting , coloring , shape, style, hair people . Through counseling and professional hairdressing treatment strives to accentuate the overall appearance and personality of the client .</t>
+  </si>
+  <si>
+    <t>This skill -building processes of clothing, using different materials and accessories , and industrial sewing machines and hand work techniques , to produce a product according to the parameters and defined requirements are developed.</t>
+  </si>
+  <si>
+    <t>This skill incorporates components menu planning, plus the process of preparing a variety of foods according to health and safety rules and knowledge related to the administration of a commercial kitchen.</t>
+  </si>
+  <si>
+    <t>It involves food and beverage service in fine dining restaurants , bar , cafes , hotels and others. Must prepare service tables , take orders , clean mixing and serving drinks, opening and serving wines, calculate invoices and receive payments . The servers are required to provide a high level to match the quality of the food served .</t>
+  </si>
+  <si>
+    <t>It includes a wide range of activities in which abilities and skills related to supporting the growth and development , physical and psychosocial health, care during illness , recovery and rehabilitation in the different age groups are shown .</t>
+  </si>
+  <si>
+    <t>Is to develop , model and manufacture new products in 2D and 3D. When a new industrial product, it is designed based on a concept or prototype is developed. The final form of the new product is determined after extensive testing and modifications.</t>
+  </si>
+  <si>
+    <t>Mobile application development includes the design and development of software solutions for mobile devices such as smartphones and tablets with originality , innovation and creativity .</t>
+  </si>
+  <si>
+    <t>Implicala produção de material impresso usando um folhas de impressão offset , além de uma máquina de impressão digital e outros equipamentos para os produtos impressos acabados , a impressão é responsável pela impressão e produzir todo o material no negócio de impressão .</t>
+  </si>
+  <si>
+    <t>Esta habilidade usa aplicativos básicos e poder de automação industrial , instalação de condutas, caixas de controle , cabos e dispositivos automáticos , aplicando-se os circuitos de controle , poder e automação industrial, máquina Interfaces Humanos (IHM) , a lógica programável e comunicações industriais.</t>
+  </si>
+  <si>
+    <t>Incorpora o levantamento de estruturas leves com drywall ou de cimento , incluindo estruturas flutuantes de edifícios , pisos, paredes, tetos , telhados céus, paredes curvas , acabamentos industriais, arte e decoração , molduras de gesso, estruturas de madeira e gestão de sistemas acústicos e térmica .</t>
+  </si>
+  <si>
+    <t>Ele consiste de corte , coloração, forma , estilo, cabelo pessoas. Através de aconselhamento e tratamento de cabeleireiro profissional se esforça para acentuar o aspecto geral ea personalidade do cliente.</t>
+  </si>
+  <si>
+    <t>Este processo de capacitação de vestuário, utilizando diferentes materiais e acessórios e máquinas de costura industriais e técnicas de trabalho de mão, para produzir um produto de acordo com os parâmetros e requisitos definidos são desenvolvidas.</t>
+  </si>
+  <si>
+    <t>Esta habilidade incorpora planejamento de cardápio componentes , mais o processo de preparação de uma variedade de alimentos de acordo com as regras e conhecimentos de saúde e segurança relacionados com a administração de uma cozinha comercial .</t>
+  </si>
+  <si>
+    <t>Trata-se de comida e serviço de bebidas em bons restaurantes, bar , cafés, hotéis e outros. Deve preparar tabelas de serviços , receber encomendas , mistura limpa e servindo bebidas , abrindo e servindo vinhos , calcular faturas e receber pagamentos . Os servidores são obrigados a fornecer um nível elevado para igualar a qualidade da comida servida .</t>
+  </si>
+  <si>
+    <t>Ele inclui uma ampla gama de atividades em que habilidades e competências relacionadas com o apoio ao crescimento e desenvolvimento , saúde física e psicossocial , cuidados durante a doença , recuperação e reabilitação nos diferentes grupos etários são mostrados.</t>
+  </si>
+  <si>
+    <t>É desenvolver , modelar e fabricar novos produtos em 2D e 3D . Quando um novo produto industrial , que é concebida com base no conceito de um protótipo ou é desenvolvido . A forma final do produto novo é determinada após testes exaustivos e modificações .</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de aplicativos móveis inclui a concepção e desenvolvimento de soluções de software para dispositivos móveis, como smartphones e tablets com originalidade, inovação e criatividade.</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2509,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2159,65 +2587,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:P26"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Number" dataDxfId="16"/>
-    <tableColumn id="2" name="name_pt" dataDxfId="15"/>
-    <tableColumn id="4" name="name_en" dataDxfId="14"/>
-    <tableColumn id="6" name="name_es" dataDxfId="13"/>
-    <tableColumn id="3" name="description_pt" dataDxfId="12"/>
-    <tableColumn id="5" name="description_en" dataDxfId="11"/>
-    <tableColumn id="7" name="description_es" dataDxfId="10"/>
-    <tableColumn id="8" name="fields_of_work_pt" dataDxfId="9"/>
-    <tableColumn id="11" name="fields_of_work_en" dataDxfId="8"/>
-    <tableColumn id="14" name="fields_of_work_es" dataDxfId="7"/>
-    <tableColumn id="9" name="activities_pt" dataDxfId="6"/>
-    <tableColumn id="12" name="activities_en" dataDxfId="5"/>
-    <tableColumn id="15" name="activities_es" dataDxfId="4"/>
-    <tableColumn id="10" name="qualitites_pt" dataDxfId="3"/>
-    <tableColumn id="13" name="qualitites_en" dataDxfId="2"/>
-    <tableColumn id="16" name="qualitites_es" dataDxfId="1"/>
+    <tableColumn id="1" name="Number" dataDxfId="18"/>
+    <tableColumn id="2" name="name_pt" dataDxfId="17"/>
+    <tableColumn id="4" name="name_en" dataDxfId="16"/>
+    <tableColumn id="6" name="name_es" dataDxfId="15"/>
+    <tableColumn id="3" name="description_pt" dataDxfId="14"/>
+    <tableColumn id="5" name="description_en" dataDxfId="13"/>
+    <tableColumn id="7" name="description_es" dataDxfId="12"/>
+    <tableColumn id="8" name="fields_of_work_pt" dataDxfId="11"/>
+    <tableColumn id="11" name="fields_of_work_en" dataDxfId="10"/>
+    <tableColumn id="14" name="fields_of_work_es" dataDxfId="9"/>
+    <tableColumn id="9" name="activities_pt" dataDxfId="8"/>
+    <tableColumn id="12" name="activities_en" dataDxfId="7"/>
+    <tableColumn id="15" name="activities_es" dataDxfId="6"/>
+    <tableColumn id="10" name="qualitites_pt" dataDxfId="5"/>
+    <tableColumn id="13" name="qualitites_en" dataDxfId="4"/>
+    <tableColumn id="16" name="qualitites_es" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G26" totalsRowShown="0">
-  <autoFilter ref="A1:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37"/>
   <tableColumns count="7">
     <tableColumn id="7" name="Id"/>
     <tableColumn id="1" name="Number"/>
-    <tableColumn id="2" name="name_pt"/>
     <tableColumn id="3" name="name_en"/>
     <tableColumn id="4" name="name_es"/>
-    <tableColumn id="5" name="picture">
+    <tableColumn id="2" name="name_pt"/>
+    <tableColumn id="5" name="image">
       <calculatedColumnFormula>TEXT(B2,"00") &amp; ".jpg"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="skill_group_id" dataDxfId="0"/>
+    <tableColumn id="8" name="skill_category_id" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
-  <tableColumns count="5">
-    <tableColumn id="4" name="id"/>
-    <tableColumn id="2" name="name_en"/>
-    <tableColumn id="1" name="name_pt"/>
-    <tableColumn id="3" name="name_es"/>
-    <tableColumn id="5" name="color"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D51" totalsRowShown="0">
+  <autoFilter ref="A1:D51"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="num"/>
+    <tableColumn id="2" name="ocupacao_br"/>
+    <tableColumn id="3" name="ocupacao_en"/>
+    <tableColumn id="4" name="ocupacao_es"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E226" totalsRowShown="0">
-  <autoFilter ref="A1:E226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+  <autoFilter ref="A1:E37"/>
+  <sortState ref="A2:E37">
+    <sortCondition ref="E1:E37"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Código"/>
+    <tableColumn id="2" name="Habilidad "/>
+    <tableColumn id="3" name="Área"/>
+    <tableColumn id="4" name="cat id" dataDxfId="1"/>
+    <tableColumn id="5" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="3" name="name_es"/>
+    <tableColumn id="4" name="id"/>
+    <tableColumn id="2" name="name_en"/>
+    <tableColumn id="1" name="name_pt"/>
+    <tableColumn id="5" name="color"/>
+    <tableColumn id="6" name="order"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E259" totalsRowShown="0">
+  <autoFilter ref="A1:E259"/>
   <tableColumns count="5">
     <tableColumn id="5" name="id"/>
     <tableColumn id="1" name="type"/>
@@ -2229,7 +2690,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E18" totalsRowShown="0">
   <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
@@ -2243,7 +2704,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B180" totalsRowShown="0">
   <autoFilter ref="A1:B180"/>
   <tableColumns count="2">
@@ -3843,7 +4304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3851,32 +4312,32 @@
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="3" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B1" t="s">
         <v>386</v>
       </c>
       <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" t="s">
         <v>371</v>
       </c>
-      <c r="D1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" t="s">
-        <v>373</v>
-      </c>
       <c r="F1" t="s">
-        <v>387</v>
+        <v>665</v>
       </c>
       <c r="G1" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,13 +4348,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="str">
         <f>TEXT(B2,"00") &amp; ".jpg"</f>
@@ -3911,13 +4372,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="0">TEXT(B3,"00") &amp; ".jpg"</f>
@@ -3935,13 +4396,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -3959,13 +4420,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3983,13 +4444,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -4007,13 +4468,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -4031,13 +4492,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -4055,13 +4516,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -4079,13 +4540,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -4103,13 +4564,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -4127,13 +4588,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -4151,13 +4612,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>679</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -4178,10 +4639,10 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -4199,13 +4660,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4223,13 +4684,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>680</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4247,13 +4708,13 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -4271,13 +4732,13 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E18" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4295,13 +4756,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4319,13 +4780,13 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>682</v>
+      </c>
+      <c r="E20" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" t="s">
-        <v>105</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4343,13 +4804,13 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>683</v>
+      </c>
+      <c r="E21" t="s">
         <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4367,13 +4828,13 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>684</v>
+      </c>
+      <c r="E22" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4391,13 +4852,13 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>685</v>
+      </c>
+      <c r="E23" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4415,20 +4876,20 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>686</v>
+      </c>
+      <c r="E24" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>40.jpg</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,13 +4900,13 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
         <v>129</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4463,13 +4924,13 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
         <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>138</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4477,6 +4938,270 @@
       </c>
       <c r="G26">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>714</v>
+      </c>
+      <c r="D27" t="s">
+        <v>691</v>
+      </c>
+      <c r="E27" t="s">
+        <v>713</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27:F37" si="1">TEXT(B27,"00") &amp; ".jpg"</f>
+        <v>11.jpg</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>723</v>
+      </c>
+      <c r="D28" t="s">
+        <v>692</v>
+      </c>
+      <c r="E28" t="s">
+        <v>722</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>19.jpg</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>725</v>
+      </c>
+      <c r="D29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E29" t="s">
+        <v>724</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>21.jpg</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>694</v>
+      </c>
+      <c r="E30" t="s">
+        <v>735</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>29.jpg</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D31" t="s">
+        <v>695</v>
+      </c>
+      <c r="E31" t="s">
+        <v>741</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>31.jpg</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>745</v>
+      </c>
+      <c r="D32" t="s">
+        <v>696</v>
+      </c>
+      <c r="E32" t="s">
+        <v>744</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>34.jpg</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>747</v>
+      </c>
+      <c r="D33" t="s">
+        <v>697</v>
+      </c>
+      <c r="E33" t="s">
+        <v>746</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>35.jpg</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>755</v>
+      </c>
+      <c r="D34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E34" t="s">
+        <v>754</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>41.jpg</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>776</v>
+      </c>
+      <c r="D35" t="s">
+        <v>699</v>
+      </c>
+      <c r="E35" t="s">
+        <v>775</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>46.jpg</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>779</v>
+      </c>
+      <c r="D36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E36" t="s">
+        <v>777</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>C01.jpg</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>702</v>
+      </c>
+      <c r="C37" t="s">
+        <v>764</v>
+      </c>
+      <c r="D37" t="s">
+        <v>703</v>
+      </c>
+      <c r="E37" t="s">
+        <v>778</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>D01.jpg</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4489,137 +5214,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>706</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>707</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>708</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>632</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>639</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>638</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>629</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>631</v>
-      </c>
-      <c r="E4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>627</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>642</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>641</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>636</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E7" t="s">
-        <v>646</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" t="s">
+        <v>714</v>
+      </c>
+      <c r="D12" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" t="s">
+        <v>720</v>
+      </c>
+      <c r="D15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C20" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>724</v>
+      </c>
+      <c r="C22" t="s">
+        <v>725</v>
+      </c>
+      <c r="D22" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>727</v>
+      </c>
+      <c r="C23" t="s">
+        <v>728</v>
+      </c>
+      <c r="D23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>730</v>
+      </c>
+      <c r="C26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D26" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" t="s">
+        <v>734</v>
+      </c>
+      <c r="D27" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>735</v>
+      </c>
+      <c r="C29" t="s">
+        <v>736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>738</v>
+      </c>
+      <c r="C30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D30" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>741</v>
+      </c>
+      <c r="C31" t="s">
+        <v>742</v>
+      </c>
+      <c r="D31" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>744</v>
+      </c>
+      <c r="C34" t="s">
+        <v>745</v>
+      </c>
+      <c r="D34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>746</v>
+      </c>
+      <c r="C35" t="s">
+        <v>747</v>
+      </c>
+      <c r="D35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>748</v>
+      </c>
+      <c r="C36" t="s">
+        <v>749</v>
+      </c>
+      <c r="D36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C37" t="s">
+        <v>752</v>
+      </c>
+      <c r="D37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>754</v>
+      </c>
+      <c r="C41" t="s">
+        <v>755</v>
+      </c>
+      <c r="D41" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>757</v>
+      </c>
+      <c r="C42" t="s">
+        <v>758</v>
+      </c>
+      <c r="D42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>760</v>
+      </c>
+      <c r="C43" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>763</v>
+      </c>
+      <c r="C46" t="s">
+        <v>764</v>
+      </c>
+      <c r="D46" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>766</v>
+      </c>
+      <c r="C47" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>769</v>
+      </c>
+      <c r="C48" t="s">
+        <v>770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>772</v>
+      </c>
+      <c r="C49" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>775</v>
+      </c>
+      <c r="C50" t="s">
+        <v>776</v>
+      </c>
+      <c r="D50" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>777</v>
+      </c>
+      <c r="C51" t="s">
+        <v>777</v>
+      </c>
+      <c r="D51" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4632,11 +5949,859 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D27" sqref="D27:D37"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C8" t="s">
+        <v>667</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C11" t="s">
+        <v>669</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>668</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>669</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>669</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C18" t="s">
+        <v>669</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>683</v>
+      </c>
+      <c r="C21" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C22" t="s">
+        <v>669</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>685</v>
+      </c>
+      <c r="C23" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>686</v>
+      </c>
+      <c r="C24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>667</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>667</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" t="s">
+        <v>667</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" t="s">
+        <v>671</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C31" t="s">
+        <v>670</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>696</v>
+      </c>
+      <c r="C32" t="s">
+        <v>671</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33" t="s">
+        <v>671</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>698</v>
+      </c>
+      <c r="C34" t="s">
+        <v>671</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>670</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>700</v>
+      </c>
+      <c r="B36" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>702</v>
+      </c>
+      <c r="B37" t="s">
+        <v>703</v>
+      </c>
+      <c r="C37" t="s">
+        <v>668</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8487,6 +10652,567 @@
         <v>48</v>
       </c>
     </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>790</v>
+      </c>
+      <c r="C227" t="s">
+        <v>395</v>
+      </c>
+      <c r="D227" t="s">
+        <v>780</v>
+      </c>
+      <c r="E227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>790</v>
+      </c>
+      <c r="C228" t="s">
+        <v>395</v>
+      </c>
+      <c r="D228" t="s">
+        <v>781</v>
+      </c>
+      <c r="E228">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>790</v>
+      </c>
+      <c r="C229" t="s">
+        <v>395</v>
+      </c>
+      <c r="D229" t="s">
+        <v>782</v>
+      </c>
+      <c r="E229">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>790</v>
+      </c>
+      <c r="C230" t="s">
+        <v>395</v>
+      </c>
+      <c r="D230" t="s">
+        <v>783</v>
+      </c>
+      <c r="E230">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>790</v>
+      </c>
+      <c r="C231" t="s">
+        <v>395</v>
+      </c>
+      <c r="D231" t="s">
+        <v>784</v>
+      </c>
+      <c r="E231">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>790</v>
+      </c>
+      <c r="C232" t="s">
+        <v>395</v>
+      </c>
+      <c r="D232" t="s">
+        <v>785</v>
+      </c>
+      <c r="E232">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>790</v>
+      </c>
+      <c r="C233" t="s">
+        <v>395</v>
+      </c>
+      <c r="D233" t="s">
+        <v>786</v>
+      </c>
+      <c r="E233">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>790</v>
+      </c>
+      <c r="C234" t="s">
+        <v>395</v>
+      </c>
+      <c r="D234" t="s">
+        <v>787</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>790</v>
+      </c>
+      <c r="C235" t="s">
+        <v>395</v>
+      </c>
+      <c r="D235" t="s">
+        <v>788</v>
+      </c>
+      <c r="E235">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>790</v>
+      </c>
+      <c r="C236" t="s">
+        <v>395</v>
+      </c>
+      <c r="D236" t="s">
+        <v>786</v>
+      </c>
+      <c r="E236" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>790</v>
+      </c>
+      <c r="C237" t="s">
+        <v>395</v>
+      </c>
+      <c r="D237" t="s">
+        <v>789</v>
+      </c>
+      <c r="E237" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>790</v>
+      </c>
+      <c r="C238" t="s">
+        <v>394</v>
+      </c>
+      <c r="D238" t="s">
+        <v>791</v>
+      </c>
+      <c r="E238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>790</v>
+      </c>
+      <c r="C239" t="s">
+        <v>394</v>
+      </c>
+      <c r="D239" t="s">
+        <v>792</v>
+      </c>
+      <c r="E239">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>790</v>
+      </c>
+      <c r="C240" t="s">
+        <v>394</v>
+      </c>
+      <c r="D240" t="s">
+        <v>793</v>
+      </c>
+      <c r="E240">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>790</v>
+      </c>
+      <c r="C241" t="s">
+        <v>394</v>
+      </c>
+      <c r="D241" t="s">
+        <v>794</v>
+      </c>
+      <c r="E241">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>790</v>
+      </c>
+      <c r="C242" t="s">
+        <v>394</v>
+      </c>
+      <c r="D242" t="s">
+        <v>795</v>
+      </c>
+      <c r="E242">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>790</v>
+      </c>
+      <c r="C243" t="s">
+        <v>394</v>
+      </c>
+      <c r="D243" t="s">
+        <v>796</v>
+      </c>
+      <c r="E243">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>790</v>
+      </c>
+      <c r="C244" t="s">
+        <v>394</v>
+      </c>
+      <c r="D244" t="s">
+        <v>797</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>790</v>
+      </c>
+      <c r="C245" t="s">
+        <v>394</v>
+      </c>
+      <c r="D245" t="s">
+        <v>798</v>
+      </c>
+      <c r="E245">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>790</v>
+      </c>
+      <c r="C246" t="s">
+        <v>394</v>
+      </c>
+      <c r="D246" t="s">
+        <v>799</v>
+      </c>
+      <c r="E246">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>790</v>
+      </c>
+      <c r="C247" t="s">
+        <v>394</v>
+      </c>
+      <c r="D247" t="s">
+        <v>797</v>
+      </c>
+      <c r="E247" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>790</v>
+      </c>
+      <c r="C248" t="s">
+        <v>394</v>
+      </c>
+      <c r="D248" t="s">
+        <v>800</v>
+      </c>
+      <c r="E248" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>790</v>
+      </c>
+      <c r="C249" t="s">
+        <v>392</v>
+      </c>
+      <c r="D249" t="s">
+        <v>801</v>
+      </c>
+      <c r="E249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>790</v>
+      </c>
+      <c r="C250" t="s">
+        <v>392</v>
+      </c>
+      <c r="D250" t="s">
+        <v>802</v>
+      </c>
+      <c r="E250">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>790</v>
+      </c>
+      <c r="C251" t="s">
+        <v>392</v>
+      </c>
+      <c r="D251" t="s">
+        <v>803</v>
+      </c>
+      <c r="E251">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>790</v>
+      </c>
+      <c r="C252" t="s">
+        <v>392</v>
+      </c>
+      <c r="D252" t="s">
+        <v>804</v>
+      </c>
+      <c r="E252">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>790</v>
+      </c>
+      <c r="C253" t="s">
+        <v>392</v>
+      </c>
+      <c r="D253" t="s">
+        <v>805</v>
+      </c>
+      <c r="E253">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>790</v>
+      </c>
+      <c r="C254" t="s">
+        <v>392</v>
+      </c>
+      <c r="D254" t="s">
+        <v>806</v>
+      </c>
+      <c r="E254">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>790</v>
+      </c>
+      <c r="C255" t="s">
+        <v>392</v>
+      </c>
+      <c r="D255" t="s">
+        <v>807</v>
+      </c>
+      <c r="E255">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>790</v>
+      </c>
+      <c r="C256" t="s">
+        <v>392</v>
+      </c>
+      <c r="D256" t="s">
+        <v>808</v>
+      </c>
+      <c r="E256">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>790</v>
+      </c>
+      <c r="C257" t="s">
+        <v>392</v>
+      </c>
+      <c r="D257" t="s">
+        <v>809</v>
+      </c>
+      <c r="E257">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>790</v>
+      </c>
+      <c r="C258" t="s">
+        <v>392</v>
+      </c>
+      <c r="D258" t="s">
+        <v>807</v>
+      </c>
+      <c r="E258" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>790</v>
+      </c>
+      <c r="C259" t="s">
+        <v>392</v>
+      </c>
+      <c r="D259" t="s">
+        <v>810</v>
+      </c>
+      <c r="E259" t="s">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8495,11 +11221,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -8534,10 +11260,10 @@
         <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E2" t="s">
         <v>427</v>
@@ -8551,10 +11277,10 @@
         <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E3" t="s">
         <v>435</v>
@@ -8568,10 +11294,10 @@
         <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E4" t="s">
         <v>438</v>
@@ -8582,16 +11308,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8602,10 +11328,10 @@
         <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E6" t="s">
         <v>423</v>
@@ -8619,10 +11345,10 @@
         <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E7" t="s">
         <v>428</v>
@@ -8636,10 +11362,10 @@
         <v>424</v>
       </c>
       <c r="C8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E8" t="s">
         <v>424</v>
@@ -8653,10 +11379,10 @@
         <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E9" t="s">
         <v>431</v>
@@ -8670,10 +11396,10 @@
         <v>432</v>
       </c>
       <c r="C10" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D10" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E10" t="s">
         <v>432</v>
@@ -8687,10 +11413,10 @@
         <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D11" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E11" t="s">
         <v>429</v>
@@ -8707,7 +11433,7 @@
         <v>437</v>
       </c>
       <c r="D12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E12" t="s">
         <v>437</v>
@@ -8721,10 +11447,10 @@
         <v>430</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D13" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E13" t="s">
         <v>430</v>
@@ -8738,10 +11464,10 @@
         <v>433</v>
       </c>
       <c r="C14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E14" t="s">
         <v>433</v>
@@ -8755,10 +11481,10 @@
         <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E15" t="s">
         <v>425</v>
@@ -8772,10 +11498,10 @@
         <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E16" t="s">
         <v>434</v>
@@ -8789,10 +11515,10 @@
         <v>436</v>
       </c>
       <c r="C17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E17" t="s">
         <v>436</v>
@@ -8806,7 +11532,7 @@
         <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D18" t="s">
         <v>426</v>
@@ -8826,7 +11552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B180"/>
   <sheetViews>

--- a/dataimport/skills/Skills.xlsx
+++ b/dataimport/skills/Skills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="SkillCategories" sheetId="9" r:id="rId5"/>
     <sheet name="SkillDescriptions" sheetId="5" r:id="rId6"/>
     <sheet name="Country" sheetId="6" r:id="rId7"/>
-    <sheet name="CountriesSkills" sheetId="7" r:id="rId8"/>
+    <sheet name="paises" sheetId="12" r:id="rId8"/>
+    <sheet name="CountriesSkills" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1338">
   <si>
     <t>Onde atua Indústria de automação. Atividades que desempenha Fabrica, instala e executa a manutenção de peças e conjuntos mecânicos. Realiza a montagem de componentes e sistemas automatizados como controladores programáveis e elementos de controle e movimento pneumático, hidráulico e elétrico. Qualidades fundamentais para o mercado - Espírito de trabalho em equipe. - Busca constante pela atualização tecnológica. - Boa capacidade para ler e interpretar desenhos e projetos. - Conhecimento de normas e procedimentos industriais.</t>
   </si>
@@ -2001,9 +2002,6 @@
     <t xml:space="preserve">El Salvador </t>
   </si>
   <si>
-    <t xml:space="preserve">ESTADOS UNIDOS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Guatemala </t>
   </si>
   <si>
@@ -2464,6 +2462,1590 @@
   </si>
   <si>
     <t>Desenvolvimento de aplicativos móveis inclui a concepção e desenvolvimento de soluções de software para dispositivos móveis, como smartphones e tablets com originalidade, inovação e criatividade.</t>
+  </si>
+  <si>
+    <t>pais_en</t>
+  </si>
+  <si>
+    <t>pais_es</t>
+  </si>
+  <si>
+    <t>pais_br</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>AFGHANISTAN</t>
+  </si>
+  <si>
+    <t>AFGANISTÁN</t>
+  </si>
+  <si>
+    <t>Afeganistão</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>SUD ÁFRICA</t>
+  </si>
+  <si>
+    <t>África do Sul</t>
+  </si>
+  <si>
+    <t>Akrotiri</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>Albânia</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>ALEMANIA</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
+    <t>ANDORRA</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>ANGOLA</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguila</t>
+  </si>
+  <si>
+    <t>Antárctida</t>
+  </si>
+  <si>
+    <t>Antígua e Barbuda</t>
+  </si>
+  <si>
+    <t>Antilhas Neerlandesas</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>ARABIA SAUDITA</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>ALGERIA</t>
+  </si>
+  <si>
+    <t>ARGELIA</t>
+  </si>
+  <si>
+    <t>Argélia</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>Arménia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>Áustria</t>
+  </si>
+  <si>
+    <t>AZERBAIJAN</t>
+  </si>
+  <si>
+    <t>AZERBAYÁN</t>
+  </si>
+  <si>
+    <t>Azerbaijão</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>Bangladeche</t>
+  </si>
+  <si>
+    <t>BARBADOS</t>
+  </si>
+  <si>
+    <t>BAHRAIN</t>
+  </si>
+  <si>
+    <t>BAHREIN</t>
+  </si>
+  <si>
+    <t>Barém</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>BÉLGICA</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>BELIZE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BENIN</t>
+  </si>
+  <si>
+    <t>BENÍN</t>
+  </si>
+  <si>
+    <t>Benim</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>Bermudas</t>
+  </si>
+  <si>
+    <t>BELARUS</t>
+  </si>
+  <si>
+    <t>BIELORRUSIA</t>
+  </si>
+  <si>
+    <t>Bielorrússia</t>
+  </si>
+  <si>
+    <t>Birmânia</t>
+  </si>
+  <si>
+    <t>BOLIVIA</t>
+  </si>
+  <si>
+    <t>Bolívia</t>
+  </si>
+  <si>
+    <t>BOSNIA AND HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>BOSNIA HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>Bósnia e Herzegovina</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>ERITREA</t>
+  </si>
+  <si>
+    <t>Eritreia</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t>ESLOVAQUIA</t>
+  </si>
+  <si>
+    <t>Eslováquia</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>ESLOVENIA</t>
+  </si>
+  <si>
+    <t>Eslovénia</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
+  </si>
+  <si>
+    <t>Estónia</t>
+  </si>
+  <si>
+    <t>ETHIOPIA</t>
+  </si>
+  <si>
+    <t>ETIOPÍA</t>
+  </si>
+  <si>
+    <t>Etiópia</t>
+  </si>
+  <si>
+    <t>Faroé</t>
+  </si>
+  <si>
+    <t>FIJI</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>FILIPINAS</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>FINLANDIA</t>
+  </si>
+  <si>
+    <t>Finlândia</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>GABON</t>
+  </si>
+  <si>
+    <t>GABÓN</t>
+  </si>
+  <si>
+    <t>Gabão</t>
+  </si>
+  <si>
+    <t>GAMBIA</t>
+  </si>
+  <si>
+    <t>Gâmbia</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>Geórgia</t>
+  </si>
+  <si>
+    <t>BOTSWANA</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BULGARIA</t>
+  </si>
+  <si>
+    <t>Bulgária</t>
+  </si>
+  <si>
+    <t>BURKINA FASO</t>
+  </si>
+  <si>
+    <t>Burquina Faso</t>
+  </si>
+  <si>
+    <t>Burúndi</t>
+  </si>
+  <si>
+    <t>BHUTAN</t>
+  </si>
+  <si>
+    <t>Butão</t>
+  </si>
+  <si>
+    <t>CAPE VERDE</t>
+  </si>
+  <si>
+    <t>CABO VERDE</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>CAMERÚN</t>
+  </si>
+  <si>
+    <t>Camarões</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>CAMBOYA</t>
+  </si>
+  <si>
+    <t>Camboja</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>CANADÁ</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>QATAR</t>
+  </si>
+  <si>
+    <t>Catar</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN</t>
+  </si>
+  <si>
+    <t>KAZAJASTÁN</t>
+  </si>
+  <si>
+    <t>Cazaquistão</t>
+  </si>
+  <si>
+    <t>CHAD</t>
+  </si>
+  <si>
+    <t>Chade</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CYPRUS</t>
+  </si>
+  <si>
+    <t>CHIPRE</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>Colômbia</t>
+  </si>
+  <si>
+    <t>COMOROS</t>
+  </si>
+  <si>
+    <t>COMORES</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Congo-Brazzaville</t>
+  </si>
+  <si>
+    <t>Congo-Kinshasa</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>KOREA NORTH</t>
+  </si>
+  <si>
+    <t>COREA DEL NORTE</t>
+  </si>
+  <si>
+    <t>Coreia do Norte</t>
+  </si>
+  <si>
+    <t>KOREA SOUTH</t>
+  </si>
+  <si>
+    <t>COREA DEL SUR</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
+    <t>IVORY COAST</t>
+  </si>
+  <si>
+    <t>COSTA DE MARFIL</t>
+  </si>
+  <si>
+    <t>Costa do Marfim</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>CROACIA</t>
+  </si>
+  <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dhekelia</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>DINAMARCA</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>DOMINICA</t>
+  </si>
+  <si>
+    <t>Domínica</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>EGIPTO</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Geórgia do Sul e Sandwich do Sul</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GRENADA</t>
+  </si>
+  <si>
+    <t>GRANADA</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>GRECIA</t>
+  </si>
+  <si>
+    <t>Grécia</t>
+  </si>
+  <si>
+    <t>GREENLAND</t>
+  </si>
+  <si>
+    <t>GROENLANDIA</t>
+  </si>
+  <si>
+    <t>Gronelândia</t>
+  </si>
+  <si>
+    <t>Guame</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GUYANA</t>
+  </si>
+  <si>
+    <t>GUAYANA</t>
+  </si>
+  <si>
+    <t>Guiana</t>
+  </si>
+  <si>
+    <t>GUINEA</t>
+  </si>
+  <si>
+    <t>Guiné</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GUINEA</t>
+  </si>
+  <si>
+    <t>GUINEA ECUATORIAL</t>
+  </si>
+  <si>
+    <t>Guiné Equatorial</t>
+  </si>
+  <si>
+    <t>GUINEA-BISSAU</t>
+  </si>
+  <si>
+    <t>Guiné-Bissau</t>
+  </si>
+  <si>
+    <t>HAITI</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>HUNGRÍA</t>
+  </si>
+  <si>
+    <t>Hungria</t>
+  </si>
+  <si>
+    <t>YEMEN</t>
+  </si>
+  <si>
+    <t>Iémen</t>
+  </si>
+  <si>
+    <t>Ilha Bouvet</t>
+  </si>
+  <si>
+    <t>Ilha do Natal</t>
+  </si>
+  <si>
+    <t>Ilha Norfolk</t>
+  </si>
+  <si>
+    <t>Ilhas Caimão</t>
+  </si>
+  <si>
+    <t>Ilhas Cook</t>
+  </si>
+  <si>
+    <t>Ilhas dos Cocos</t>
+  </si>
+  <si>
+    <t>Ilhas Falkland</t>
+  </si>
+  <si>
+    <t>Ilhas Heard e McDonald</t>
+  </si>
+  <si>
+    <t>Ilhas Marshall</t>
+  </si>
+  <si>
+    <t>Ilhas Salomão</t>
+  </si>
+  <si>
+    <t>Ilhas Turcas e Caicos</t>
+  </si>
+  <si>
+    <t>Ilhas Virgens Americanas</t>
+  </si>
+  <si>
+    <t>Ilhas Virgens Britânicas</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>Índia</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MÉXICO</t>
+  </si>
+  <si>
+    <t>MICRONESIA</t>
+  </si>
+  <si>
+    <t>Micronésia</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>MOLDOVA</t>
+  </si>
+  <si>
+    <t>MOLDOVIA</t>
+  </si>
+  <si>
+    <t>Moldávia</t>
+  </si>
+  <si>
+    <t>MONACO</t>
+  </si>
+  <si>
+    <t>MÓNACO</t>
+  </si>
+  <si>
+    <t>Mónaco</t>
+  </si>
+  <si>
+    <t>MONGOLIA</t>
+  </si>
+  <si>
+    <t>Mongólia</t>
+  </si>
+  <si>
+    <t>Monserrate</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Mundo</t>
+  </si>
+  <si>
+    <t>NAMIBIA</t>
+  </si>
+  <si>
+    <t>Namíbia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>NEPAL</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>Nicarágua</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>Nigéria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>NORUEGA</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>IRÁN</t>
+  </si>
+  <si>
+    <t>Irão</t>
+  </si>
+  <si>
+    <t>IRAQ</t>
+  </si>
+  <si>
+    <t>Iraque</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>IRLANDA</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>ISLANDIA</t>
+  </si>
+  <si>
+    <t>Islândia</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>Itália</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>JAPÓN</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>DJIBOUTI</t>
+  </si>
+  <si>
+    <t>Jibuti</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>JORDANIA</t>
+  </si>
+  <si>
+    <t>Jordânia</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>LAOS</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LESOTHO</t>
+  </si>
+  <si>
+    <t>LESOTO</t>
+  </si>
+  <si>
+    <t>Lesoto</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>LETONIA</t>
+  </si>
+  <si>
+    <t>Letónia</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>LÍBANO</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>LIBERIA</t>
+  </si>
+  <si>
+    <t>Libéria</t>
+  </si>
+  <si>
+    <t>LIBYAN ARAB JAMAHIRIYA</t>
+  </si>
+  <si>
+    <t>LIBIA</t>
+  </si>
+  <si>
+    <t>Líbia</t>
+  </si>
+  <si>
+    <t>LIECHTENSTEIN</t>
+  </si>
+  <si>
+    <t>Listenstaine</t>
+  </si>
+  <si>
+    <t>LITHUANIA</t>
+  </si>
+  <si>
+    <t>LITUANIA</t>
+  </si>
+  <si>
+    <t>Lituânia</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>LUXEMBURGO</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>MACAO</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>MACEDONIA</t>
+  </si>
+  <si>
+    <t>Macedónia</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>Madagáscar</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>MALASIA</t>
+  </si>
+  <si>
+    <t>Malásia</t>
+  </si>
+  <si>
+    <t>Malávi</t>
+  </si>
+  <si>
+    <t>MALDIVES</t>
+  </si>
+  <si>
+    <t>MALDIVAS</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>MALI</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MALTA</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Man, Isle of</t>
+  </si>
+  <si>
+    <t>Marianas do Norte</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MARRUECOS</t>
+  </si>
+  <si>
+    <t>Marrocos</t>
+  </si>
+  <si>
+    <t>MAURITIUS</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>Maurícia</t>
+  </si>
+  <si>
+    <t>MAURITANIA</t>
+  </si>
+  <si>
+    <t>Mauritânia</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>NEW CALEDONIA</t>
+  </si>
+  <si>
+    <t>NUEVA CALEDONIA</t>
+  </si>
+  <si>
+    <t>Nova Caledónia</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>NUEVA ZELANDA</t>
+  </si>
+  <si>
+    <t>Nova Zelândia</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>OMÁN</t>
+  </si>
+  <si>
+    <t>Omã</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>HOLANDA</t>
+  </si>
+  <si>
+    <t>Países Baixos</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>PANAMÁ</t>
+  </si>
+  <si>
+    <t>Papua-Nova Guiné</t>
+  </si>
+  <si>
+    <t>PAKISTAN</t>
+  </si>
+  <si>
+    <t>PAKISTÁN</t>
+  </si>
+  <si>
+    <t>Paquistão</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>FRENCH POLYNESIA</t>
+  </si>
+  <si>
+    <t>POLINESIA FRANCESA</t>
+  </si>
+  <si>
+    <t>Polinésia Francesa</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>POLONIA</t>
+  </si>
+  <si>
+    <t>Polónia</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>Porto Rico</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>KENYA</t>
+  </si>
+  <si>
+    <t>Quénia</t>
+  </si>
+  <si>
+    <t>KYRGYZSTAN</t>
+  </si>
+  <si>
+    <t>KYRGYZSTÁN</t>
+  </si>
+  <si>
+    <t>Quirguizistão</t>
+  </si>
+  <si>
+    <t>Quiribáti</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Centro-Africana</t>
+  </si>
+  <si>
+    <t>CZECH REPUBLIC</t>
+  </si>
+  <si>
+    <t>REPÚBLICA CHECA</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>DOMINICAN REPUBLIC</t>
+  </si>
+  <si>
+    <t>DOMINICANA REP.</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>RUMANÍA</t>
+  </si>
+  <si>
+    <t>Roménia</t>
+  </si>
+  <si>
+    <t>RWANDA</t>
+  </si>
+  <si>
+    <t>RUANDA</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>RUSSIAN FEDERATION</t>
+  </si>
+  <si>
+    <t>RUSIA</t>
+  </si>
+  <si>
+    <t>Rússia</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>SAMOA</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Samoa Americana</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>Santa Lúcia</t>
+  </si>
+  <si>
+    <t>São Cristóvão e Neves</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>TURKMENISTÁN</t>
+  </si>
+  <si>
+    <t>Turquemenistão</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>TURQUÍA</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+  <si>
+    <t>TUVALU</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>UKRAINE</t>
+  </si>
+  <si>
+    <t>UCRANIA</t>
+  </si>
+  <si>
+    <t>Ucrânia</t>
+  </si>
+  <si>
+    <t>UGANDA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>União Europeia</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN</t>
+  </si>
+  <si>
+    <t>UZBEKISTÁN</t>
+  </si>
+  <si>
+    <t>Usbequistão</t>
+  </si>
+  <si>
+    <t>VANUATU</t>
+  </si>
+  <si>
+    <t>VANUATÚ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>HOLY SEE</t>
+  </si>
+  <si>
+    <t>VATICANO</t>
+  </si>
+  <si>
+    <t>Vaticano</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VIETNAM</t>
+  </si>
+  <si>
+    <t>VIETNÁM</t>
+  </si>
+  <si>
+    <t>Vietname</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis e Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>São Marinho</t>
+  </si>
+  <si>
+    <t>São Pedro e Miquelon</t>
+  </si>
+  <si>
+    <t>SAO TOME AND PRINCIPE</t>
+  </si>
+  <si>
+    <t>São Tomé e Príncipe</t>
+  </si>
+  <si>
+    <t>São Vicente e Granadinas</t>
+  </si>
+  <si>
+    <t>Sara Ocidental</t>
+  </si>
+  <si>
+    <t>SEYCHELLES</t>
+  </si>
+  <si>
+    <t>Seicheles</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SIERRA LEONE</t>
+  </si>
+  <si>
+    <t>SIERRA LEONA</t>
+  </si>
+  <si>
+    <t>Serra Leoa</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>SINGAPUR</t>
+  </si>
+  <si>
+    <t>Singapura</t>
+  </si>
+  <si>
+    <t>SYRIA</t>
+  </si>
+  <si>
+    <t>SIRIA</t>
+  </si>
+  <si>
+    <t>Síria</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>Somália</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t>Sri Lanca</t>
+  </si>
+  <si>
+    <t>SWAZILAND</t>
+  </si>
+  <si>
+    <t>SWAZILANDIA</t>
+  </si>
+  <si>
+    <t>Suazilândia</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>SUDÁN</t>
+  </si>
+  <si>
+    <t>Sudão</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>SUECIA</t>
+  </si>
+  <si>
+    <t>Suécia</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>SUIZA</t>
+  </si>
+  <si>
+    <t>Suíça</t>
+  </si>
+  <si>
+    <t>SURINAME</t>
+  </si>
+  <si>
+    <t>SURINAM</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard e Jan Mayen</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>TAILANDIA</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>TAIWÁN</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TAJIKISTAN</t>
+  </si>
+  <si>
+    <t>TAJIKISTÁN</t>
+  </si>
+  <si>
+    <t>Tajiquistão</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t>Tanzânia</t>
+  </si>
+  <si>
+    <t>Território Britânico do Oceano Índico</t>
+  </si>
+  <si>
+    <t>Territórios Austrais Franceses</t>
+  </si>
+  <si>
+    <t>TIMOR-LESTE</t>
+  </si>
+  <si>
+    <t>TIMOR ESTE</t>
+  </si>
+  <si>
+    <t>Timor Leste</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TONGA</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TRINIDAD AND TOBAGO</t>
+  </si>
+  <si>
+    <t>TRINIDAD TOBAGO</t>
+  </si>
+  <si>
+    <t>Trindade e Tobago</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>TÚNEZ</t>
+  </si>
+  <si>
+    <t>Tunísia</t>
+  </si>
+  <si>
+    <t>ZAMBIA</t>
+  </si>
+  <si>
+    <t>Zâmbia</t>
+  </si>
+  <si>
+    <t>ZIMBABWE</t>
+  </si>
+  <si>
+    <t>Zimbabué</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paragay</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Antillas Neerlandesas</t>
   </si>
 </sst>
 </file>
@@ -2665,8 +4247,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F7" totalsRowShown="0">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
+    <tableColumn id="4" name="id"/>
     <tableColumn id="3" name="name_es"/>
-    <tableColumn id="4" name="id"/>
     <tableColumn id="2" name="name_en"/>
     <tableColumn id="1" name="name_pt"/>
     <tableColumn id="5" name="color"/>
@@ -2705,6 +4287,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C257" totalsRowShown="0">
+  <autoFilter ref="A1:C257"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="pais_en"/>
+    <tableColumn id="2" name="pais_es"/>
+    <tableColumn id="3" name="pais_br"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B180" totalsRowShown="0">
   <autoFilter ref="A1:B180"/>
   <tableColumns count="2">
@@ -4334,10 +5928,10 @@
         <v>371</v>
       </c>
       <c r="F1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G1" t="s">
         <v>665</v>
-      </c>
-      <c r="G1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4351,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -4375,7 +5969,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4399,7 +5993,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -4447,7 +6041,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -4495,7 +6089,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -4519,7 +6113,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -4567,7 +6161,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -4615,7 +6209,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -4687,7 +6281,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
@@ -4735,7 +6329,7 @@
         <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -4783,7 +6377,7 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E20" t="s">
         <v>102</v>
@@ -4807,7 +6401,7 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E21" t="s">
         <v>106</v>
@@ -4831,7 +6425,7 @@
         <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E22" t="s">
         <v>111</v>
@@ -4855,7 +6449,7 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E23" t="s">
         <v>117</v>
@@ -4879,7 +6473,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E24" t="s">
         <v>123</v>
@@ -4948,13 +6542,13 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ref="F27:F37" si="1">TEXT(B27,"00") &amp; ".jpg"</f>
@@ -4972,13 +6566,13 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -4996,13 +6590,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E29" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -5020,13 +6614,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -5044,13 +6638,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -5068,13 +6662,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -5092,13 +6686,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -5116,13 +6710,13 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -5140,13 +6734,13 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -5161,16 +6755,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -5185,16 +6779,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>701</v>
+      </c>
+      <c r="C37" t="s">
+        <v>763</v>
+      </c>
+      <c r="D37" t="s">
         <v>702</v>
       </c>
-      <c r="C37" t="s">
-        <v>764</v>
-      </c>
-      <c r="D37" t="s">
-        <v>703</v>
-      </c>
       <c r="E37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -5227,16 +6821,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1" t="s">
         <v>706</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>707</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>708</v>
-      </c>
-      <c r="D1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,13 +6936,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" t="s">
         <v>710</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>711</v>
-      </c>
-      <c r="D9" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5384,13 +6978,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" t="s">
         <v>713</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>714</v>
-      </c>
-      <c r="D12" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5412,13 +7006,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>715</v>
+      </c>
+      <c r="C14" t="s">
         <v>716</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>717</v>
-      </c>
-      <c r="D14" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5426,13 +7020,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" t="s">
         <v>719</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>720</v>
-      </c>
-      <c r="D15" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5496,13 +7090,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" t="s">
         <v>722</v>
       </c>
-      <c r="C20" t="s">
-        <v>723</v>
-      </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,13 +7118,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" t="s">
         <v>724</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>725</v>
-      </c>
-      <c r="D22" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,13 +7132,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>726</v>
+      </c>
+      <c r="C23" t="s">
         <v>727</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>728</v>
-      </c>
-      <c r="D23" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,13 +7174,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" t="s">
         <v>730</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>731</v>
-      </c>
-      <c r="D26" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,13 +7188,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" t="s">
         <v>733</v>
       </c>
-      <c r="C27" t="s">
-        <v>734</v>
-      </c>
       <c r="D27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5622,13 +7216,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>734</v>
+      </c>
+      <c r="C29" t="s">
         <v>735</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>736</v>
-      </c>
-      <c r="D29" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,13 +7230,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>737</v>
+      </c>
+      <c r="C30" t="s">
         <v>738</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>739</v>
-      </c>
-      <c r="D30" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5650,13 +7244,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C31" t="s">
         <v>741</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>742</v>
-      </c>
-      <c r="D31" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5692,13 +7286,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" t="s">
         <v>744</v>
       </c>
-      <c r="C34" t="s">
-        <v>745</v>
-      </c>
       <c r="D34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5706,13 +7300,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>745</v>
+      </c>
+      <c r="C35" t="s">
         <v>746</v>
       </c>
-      <c r="C35" t="s">
-        <v>747</v>
-      </c>
       <c r="D35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,13 +7314,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>747</v>
+      </c>
+      <c r="C36" t="s">
         <v>748</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>749</v>
-      </c>
-      <c r="D36" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,13 +7328,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>750</v>
+      </c>
+      <c r="C37" t="s">
         <v>751</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>752</v>
-      </c>
-      <c r="D37" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,13 +7384,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>753</v>
+      </c>
+      <c r="C41" t="s">
         <v>754</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>755</v>
-      </c>
-      <c r="D41" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5804,13 +7398,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C42" t="s">
         <v>757</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>758</v>
-      </c>
-      <c r="D42" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,13 +7412,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>759</v>
+      </c>
+      <c r="C43" t="s">
         <v>760</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>761</v>
-      </c>
-      <c r="D43" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5860,13 +7454,13 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
+        <v>762</v>
+      </c>
+      <c r="C46" t="s">
         <v>763</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>764</v>
-      </c>
-      <c r="D46" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5874,13 +7468,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
+        <v>765</v>
+      </c>
+      <c r="C47" t="s">
         <v>766</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>767</v>
-      </c>
-      <c r="D47" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5888,13 +7482,13 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>768</v>
+      </c>
+      <c r="C48" t="s">
         <v>769</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>770</v>
-      </c>
-      <c r="D48" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,13 +7496,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
+        <v>771</v>
+      </c>
+      <c r="C49" t="s">
         <v>772</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>773</v>
-      </c>
-      <c r="D49" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5916,13 +7510,13 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
+        <v>774</v>
+      </c>
+      <c r="C50" t="s">
         <v>775</v>
       </c>
-      <c r="C50" t="s">
-        <v>776</v>
-      </c>
       <c r="D50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,13 +7524,13 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -5963,19 +7557,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" t="s">
         <v>688</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>689</v>
       </c>
-      <c r="C1" t="s">
-        <v>690</v>
-      </c>
       <c r="D1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1" t="s">
         <v>704</v>
-      </c>
-      <c r="E1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,10 +7577,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -6001,10 +7595,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -6019,10 +7613,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6040,7 +7634,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -6055,10 +7649,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -6076,7 +7670,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -6091,10 +7685,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -6109,10 +7703,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -6130,7 +7724,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -6145,10 +7739,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6166,7 +7760,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6181,10 +7775,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -6202,7 +7796,7 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -6220,7 +7814,7 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6235,10 +7829,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6256,7 +7850,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -6271,10 +7865,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6292,7 +7886,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -6307,10 +7901,10 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -6325,7 +7919,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C21" t="s">
         <v>633</v>
@@ -6343,10 +7937,10 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -6361,10 +7955,10 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -6379,10 +7973,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -6400,7 +7994,7 @@
         <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -6418,7 +8012,7 @@
         <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -6433,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -6451,10 +8045,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -6469,10 +8063,10 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -6487,10 +8081,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -6505,10 +8099,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -6523,10 +8117,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -6541,10 +8135,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -6559,10 +8153,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -6577,10 +8171,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -6592,13 +8186,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>699</v>
+      </c>
+      <c r="B36" t="s">
         <v>700</v>
       </c>
-      <c r="B36" t="s">
-        <v>701</v>
-      </c>
       <c r="C36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -6610,13 +8204,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>701</v>
+      </c>
+      <c r="B37" t="s">
         <v>702</v>
       </c>
-      <c r="B37" t="s">
-        <v>703</v>
-      </c>
       <c r="C37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -6651,10 +8245,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>373</v>
-      </c>
-      <c r="B1" t="s">
-        <v>439</v>
       </c>
       <c r="C1" t="s">
         <v>372</v>
@@ -6666,15 +8260,15 @@
         <v>639</v>
       </c>
       <c r="F1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
       </c>
       <c r="C2" t="s">
         <v>630</v>
@@ -6690,11 +8284,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>669</v>
       </c>
       <c r="C3" t="s">
         <v>635</v>
@@ -6710,11 +8304,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B4">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>628</v>
@@ -6730,11 +8324,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B5">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>666</v>
       </c>
       <c r="C5" t="s">
         <v>626</v>
@@ -6750,11 +8344,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B6">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
       </c>
       <c r="C6" t="s">
         <v>637</v>
@@ -6770,11 +8364,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>633</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>632</v>
@@ -6801,7 +8395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10657,13 +12251,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C227" t="s">
         <v>395</v>
       </c>
       <c r="D227" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E227">
         <v>11</v>
@@ -10674,13 +12268,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C228" t="s">
         <v>395</v>
       </c>
       <c r="D228" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E228">
         <v>19</v>
@@ -10691,13 +12285,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C229" t="s">
         <v>395</v>
       </c>
       <c r="D229" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E229">
         <v>21</v>
@@ -10708,13 +12302,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C230" t="s">
         <v>395</v>
       </c>
       <c r="D230" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E230">
         <v>29</v>
@@ -10725,13 +12319,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C231" t="s">
         <v>395</v>
       </c>
       <c r="D231" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E231">
         <v>31</v>
@@ -10742,13 +12336,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C232" t="s">
         <v>395</v>
       </c>
       <c r="D232" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E232">
         <v>34</v>
@@ -10759,13 +12353,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C233" t="s">
         <v>395</v>
       </c>
       <c r="D233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E233">
         <v>35</v>
@@ -10776,13 +12370,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C234" t="s">
         <v>395</v>
       </c>
       <c r="D234" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E234">
         <v>41</v>
@@ -10793,13 +12387,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C235" t="s">
         <v>395</v>
       </c>
       <c r="D235" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E235">
         <v>46</v>
@@ -10810,16 +12404,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C236" t="s">
         <v>395</v>
       </c>
       <c r="D236" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E236" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -10827,16 +12421,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C237" t="s">
         <v>395</v>
       </c>
       <c r="D237" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E237" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -10844,13 +12438,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C238" t="s">
         <v>394</v>
       </c>
       <c r="D238" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E238">
         <v>11</v>
@@ -10861,13 +12455,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C239" t="s">
         <v>394</v>
       </c>
       <c r="D239" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E239">
         <v>19</v>
@@ -10878,13 +12472,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C240" t="s">
         <v>394</v>
       </c>
       <c r="D240" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E240">
         <v>21</v>
@@ -10895,13 +12489,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C241" t="s">
         <v>394</v>
       </c>
       <c r="D241" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E241">
         <v>29</v>
@@ -10912,13 +12506,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C242" t="s">
         <v>394</v>
       </c>
       <c r="D242" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E242">
         <v>31</v>
@@ -10929,13 +12523,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C243" t="s">
         <v>394</v>
       </c>
       <c r="D243" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E243">
         <v>34</v>
@@ -10946,13 +12540,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C244" t="s">
         <v>394</v>
       </c>
       <c r="D244" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E244">
         <v>35</v>
@@ -10963,13 +12557,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C245" t="s">
         <v>394</v>
       </c>
       <c r="D245" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E245">
         <v>41</v>
@@ -10980,13 +12574,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C246" t="s">
         <v>394</v>
       </c>
       <c r="D246" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E246">
         <v>46</v>
@@ -10997,16 +12591,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C247" t="s">
         <v>394</v>
       </c>
       <c r="D247" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E247" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -11014,16 +12608,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C248" t="s">
         <v>394</v>
       </c>
       <c r="D248" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E248" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -11031,13 +12625,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C249" t="s">
         <v>392</v>
       </c>
       <c r="D249" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E249">
         <v>11</v>
@@ -11048,13 +12642,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C250" t="s">
         <v>392</v>
       </c>
       <c r="D250" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E250">
         <v>19</v>
@@ -11065,13 +12659,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C251" t="s">
         <v>392</v>
       </c>
       <c r="D251" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E251">
         <v>21</v>
@@ -11082,13 +12676,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C252" t="s">
         <v>392</v>
       </c>
       <c r="D252" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E252">
         <v>29</v>
@@ -11099,13 +12693,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C253" t="s">
         <v>392</v>
       </c>
       <c r="D253" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E253">
         <v>31</v>
@@ -11116,13 +12710,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C254" t="s">
         <v>392</v>
       </c>
       <c r="D254" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E254">
         <v>34</v>
@@ -11133,13 +12727,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C255" t="s">
         <v>392</v>
       </c>
       <c r="D255" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E255">
         <v>35</v>
@@ -11150,13 +12744,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C256" t="s">
         <v>392</v>
       </c>
       <c r="D256" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E256">
         <v>41</v>
@@ -11167,13 +12761,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C257" t="s">
         <v>392</v>
       </c>
       <c r="D257" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E257">
         <v>46</v>
@@ -11184,16 +12778,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C258" t="s">
         <v>392</v>
       </c>
       <c r="D258" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E258" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -11201,16 +12795,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C259" t="s">
         <v>392</v>
       </c>
       <c r="D259" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E259" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -11225,9 +12819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11257,10 +12849,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>1336</v>
       </c>
       <c r="C2" t="s">
-        <v>646</v>
+        <v>1337</v>
       </c>
       <c r="D2" t="s">
         <v>646</v>
@@ -11308,7 +12900,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
         <v>649</v>
@@ -11317,7 +12909,7 @@
         <v>649</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11325,7 +12917,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>813</v>
       </c>
       <c r="C6" t="s">
         <v>650</v>
@@ -11365,7 +12957,7 @@
         <v>652</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E8" t="s">
         <v>424</v>
@@ -11427,13 +13019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>1332</v>
       </c>
       <c r="C12" t="s">
         <v>437</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
+        <v>437</v>
       </c>
       <c r="E12" t="s">
         <v>437</v>
@@ -11447,10 +13039,10 @@
         <v>430</v>
       </c>
       <c r="C13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E13" t="s">
         <v>430</v>
@@ -11464,10 +13056,10 @@
         <v>433</v>
       </c>
       <c r="C14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E14" t="s">
         <v>433</v>
@@ -11478,13 +13070,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>1333</v>
       </c>
       <c r="C15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E15" t="s">
         <v>425</v>
@@ -11495,13 +13087,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>1334</v>
       </c>
       <c r="C16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E16" t="s">
         <v>434</v>
@@ -11512,13 +13104,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>1335</v>
       </c>
       <c r="C17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E17" t="s">
         <v>436</v>
@@ -11532,7 +13124,7 @@
         <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D18" t="s">
         <v>426</v>
@@ -11553,6 +13145,2855 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C257"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C9" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B13" t="s">
+        <v>833</v>
+      </c>
+      <c r="C13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>834</v>
+      </c>
+      <c r="B14" t="s">
+        <v>835</v>
+      </c>
+      <c r="C14" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>837</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>838</v>
+      </c>
+      <c r="B16" t="s">
+        <v>839</v>
+      </c>
+      <c r="C16" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>841</v>
+      </c>
+      <c r="B17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>842</v>
+      </c>
+      <c r="B18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>844</v>
+      </c>
+      <c r="B19" t="s">
+        <v>844</v>
+      </c>
+      <c r="C19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>845</v>
+      </c>
+      <c r="B20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>846</v>
+      </c>
+      <c r="B21" t="s">
+        <v>846</v>
+      </c>
+      <c r="C21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>847</v>
+      </c>
+      <c r="B22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>849</v>
+      </c>
+      <c r="B23" t="s">
+        <v>849</v>
+      </c>
+      <c r="C23" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>851</v>
+      </c>
+      <c r="B24" t="s">
+        <v>852</v>
+      </c>
+      <c r="C24" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>854</v>
+      </c>
+      <c r="B25" t="s">
+        <v>854</v>
+      </c>
+      <c r="C25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>855</v>
+      </c>
+      <c r="B26" t="s">
+        <v>855</v>
+      </c>
+      <c r="C26" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>857</v>
+      </c>
+      <c r="B27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28" t="s">
+        <v>859</v>
+      </c>
+      <c r="C28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>861</v>
+      </c>
+      <c r="B29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>864</v>
+      </c>
+      <c r="B30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C30" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>866</v>
+      </c>
+      <c r="B31" t="s">
+        <v>867</v>
+      </c>
+      <c r="C31" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>869</v>
+      </c>
+      <c r="B32" t="s">
+        <v>869</v>
+      </c>
+      <c r="C32" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>871</v>
+      </c>
+      <c r="B33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C33" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>874</v>
+      </c>
+      <c r="B34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C34" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>875</v>
+      </c>
+      <c r="B35" t="s">
+        <v>875</v>
+      </c>
+      <c r="C35" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>877</v>
+      </c>
+      <c r="B36" t="s">
+        <v>878</v>
+      </c>
+      <c r="C36" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>880</v>
+      </c>
+      <c r="B37" t="s">
+        <v>880</v>
+      </c>
+      <c r="C37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>882</v>
+      </c>
+      <c r="B38" t="s">
+        <v>882</v>
+      </c>
+      <c r="C38" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>884</v>
+      </c>
+      <c r="B39" t="s">
+        <v>885</v>
+      </c>
+      <c r="C39" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>887</v>
+      </c>
+      <c r="B40" t="s">
+        <v>888</v>
+      </c>
+      <c r="C40" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>890</v>
+      </c>
+      <c r="B41" t="s">
+        <v>891</v>
+      </c>
+      <c r="C41" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>893</v>
+      </c>
+      <c r="B42" t="s">
+        <v>894</v>
+      </c>
+      <c r="C42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>895</v>
+      </c>
+      <c r="B43" t="s">
+        <v>895</v>
+      </c>
+      <c r="C43" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>897</v>
+      </c>
+      <c r="B44" t="s">
+        <v>898</v>
+      </c>
+      <c r="C44" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>900</v>
+      </c>
+      <c r="B45" t="s">
+        <v>900</v>
+      </c>
+      <c r="C45" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>901</v>
+      </c>
+      <c r="B46" t="s">
+        <v>901</v>
+      </c>
+      <c r="C46" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>903</v>
+      </c>
+      <c r="B47" t="s">
+        <v>904</v>
+      </c>
+      <c r="C47" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>906</v>
+      </c>
+      <c r="B48" t="s">
+        <v>907</v>
+      </c>
+      <c r="C48" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>909</v>
+      </c>
+      <c r="B49" t="s">
+        <v>910</v>
+      </c>
+      <c r="C49" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>912</v>
+      </c>
+      <c r="B50" t="s">
+        <v>913</v>
+      </c>
+      <c r="C50" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>915</v>
+      </c>
+      <c r="B51" t="s">
+        <v>915</v>
+      </c>
+      <c r="C51" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>917</v>
+      </c>
+      <c r="B52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>919</v>
+      </c>
+      <c r="B53" t="s">
+        <v>919</v>
+      </c>
+      <c r="C53" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>920</v>
+      </c>
+      <c r="B54" t="s">
+        <v>920</v>
+      </c>
+      <c r="C54" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>922</v>
+      </c>
+      <c r="B55" t="s">
+        <v>922</v>
+      </c>
+      <c r="C55" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" t="s">
+        <v>924</v>
+      </c>
+      <c r="C56" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>925</v>
+      </c>
+      <c r="B57" t="s">
+        <v>925</v>
+      </c>
+      <c r="C57" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>927</v>
+      </c>
+      <c r="B58" t="s">
+        <v>927</v>
+      </c>
+      <c r="C58" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>929</v>
+      </c>
+      <c r="B59" t="s">
+        <v>929</v>
+      </c>
+      <c r="C59" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>930</v>
+      </c>
+      <c r="B60" t="s">
+        <v>930</v>
+      </c>
+      <c r="C60" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>932</v>
+      </c>
+      <c r="B61" t="s">
+        <v>933</v>
+      </c>
+      <c r="C61" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>935</v>
+      </c>
+      <c r="B62" t="s">
+        <v>936</v>
+      </c>
+      <c r="C62" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>938</v>
+      </c>
+      <c r="B63" t="s">
+        <v>939</v>
+      </c>
+      <c r="C63" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>941</v>
+      </c>
+      <c r="B64" t="s">
+        <v>942</v>
+      </c>
+      <c r="C64" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>944</v>
+      </c>
+      <c r="B65" t="s">
+        <v>944</v>
+      </c>
+      <c r="C65" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>946</v>
+      </c>
+      <c r="B66" t="s">
+        <v>947</v>
+      </c>
+      <c r="C66" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>949</v>
+      </c>
+      <c r="B67" t="s">
+        <v>949</v>
+      </c>
+      <c r="C67" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>951</v>
+      </c>
+      <c r="B68" t="s">
+        <v>951</v>
+      </c>
+      <c r="C68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>952</v>
+      </c>
+      <c r="B69" t="s">
+        <v>952</v>
+      </c>
+      <c r="C69" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>954</v>
+      </c>
+      <c r="B70" t="s">
+        <v>955</v>
+      </c>
+      <c r="C70" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>957</v>
+      </c>
+      <c r="B71" t="s">
+        <v>957</v>
+      </c>
+      <c r="C71" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>958</v>
+      </c>
+      <c r="B72" t="s">
+        <v>958</v>
+      </c>
+      <c r="C72" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>960</v>
+      </c>
+      <c r="B73" t="s">
+        <v>961</v>
+      </c>
+      <c r="C73" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>963</v>
+      </c>
+      <c r="B74" t="s">
+        <v>963</v>
+      </c>
+      <c r="C74" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>964</v>
+      </c>
+      <c r="B75" t="s">
+        <v>964</v>
+      </c>
+      <c r="C75" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>965</v>
+      </c>
+      <c r="B76" t="s">
+        <v>965</v>
+      </c>
+      <c r="C76" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>966</v>
+      </c>
+      <c r="B77" t="s">
+        <v>967</v>
+      </c>
+      <c r="C77" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>969</v>
+      </c>
+      <c r="B78" t="s">
+        <v>970</v>
+      </c>
+      <c r="C78" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>972</v>
+      </c>
+      <c r="B79" t="s">
+        <v>973</v>
+      </c>
+      <c r="C79" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>975</v>
+      </c>
+      <c r="B80" t="s">
+        <v>975</v>
+      </c>
+      <c r="C80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>976</v>
+      </c>
+      <c r="B81" t="s">
+        <v>977</v>
+      </c>
+      <c r="C81" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>979</v>
+      </c>
+      <c r="B82" t="s">
+        <v>979</v>
+      </c>
+      <c r="C82" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>981</v>
+      </c>
+      <c r="B83" t="s">
+        <v>981</v>
+      </c>
+      <c r="C83" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>982</v>
+      </c>
+      <c r="B84" t="s">
+        <v>983</v>
+      </c>
+      <c r="C84" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>985</v>
+      </c>
+      <c r="B85" t="s">
+        <v>985</v>
+      </c>
+      <c r="C85" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>987</v>
+      </c>
+      <c r="B86" t="s">
+        <v>988</v>
+      </c>
+      <c r="C86" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>990</v>
+      </c>
+      <c r="B87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C87" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>991</v>
+      </c>
+      <c r="B88" t="s">
+        <v>991</v>
+      </c>
+      <c r="C88" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>992</v>
+      </c>
+      <c r="B89" t="s">
+        <v>992</v>
+      </c>
+      <c r="C89" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>993</v>
+      </c>
+      <c r="B90" t="s">
+        <v>994</v>
+      </c>
+      <c r="C90" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>996</v>
+      </c>
+      <c r="B91" t="s">
+        <v>997</v>
+      </c>
+      <c r="C91" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>999</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C94" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C101" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C121" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C181" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C185" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B180"/>
   <sheetViews>

--- a/dataimport/skills/Skills.xlsx
+++ b/dataimport/skills/Skills.xlsx
@@ -9,18 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" r:id="rId1"/>
     <sheet name="Skill" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId4"/>
-    <sheet name="SkillCategories" sheetId="9" r:id="rId5"/>
-    <sheet name="SkillDescriptions" sheetId="5" r:id="rId6"/>
-    <sheet name="Country" sheetId="6" r:id="rId7"/>
-    <sheet name="paises" sheetId="12" r:id="rId8"/>
-    <sheet name="CountriesSkills" sheetId="7" r:id="rId9"/>
+    <sheet name="SkillCategories" sheetId="9" r:id="rId3"/>
+    <sheet name="SkillDescriptions" sheetId="5" r:id="rId4"/>
+    <sheet name="Country" sheetId="6" r:id="rId5"/>
+    <sheet name="CountriesSkills" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="758">
   <si>
     <t>Onde atua Indústria de automação. Atividades que desempenha Fabrica, instala e executa a manutenção de peças e conjuntos mecânicos. Realiza a montagem de componentes e sistemas automatizados como controladores programáveis e elementos de controle e movimento pneumático, hidráulico e elétrico. Qualidades fundamentais para o mercado - Espírito de trabalho em equipe. - Busca constante pela atualização tecnológica. - Boa capacidade para ler e interpretar desenhos e projetos. - Conhecimento de normas e procedimentos industriais.</t>
   </si>
@@ -2095,15 +2092,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilidad </t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tecnología de Impresión de Medios </t>
   </si>
   <si>
@@ -2134,69 +2122,18 @@
     <t>C01</t>
   </si>
   <si>
-    <t>Barsimo</t>
-  </si>
-  <si>
     <t>D01</t>
   </si>
   <si>
     <t>Desarrollo de Aplicaciones Móviles</t>
   </si>
   <si>
-    <t>cat id</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>ocupacao_br</t>
-  </si>
-  <si>
-    <t>ocupacao_en</t>
-  </si>
-  <si>
-    <t>ocupacao_es</t>
-  </si>
-  <si>
-    <t>Engenharia de Moldes Plásticos</t>
-  </si>
-  <si>
-    <t>Plastic Die Engineering</t>
-  </si>
-  <si>
-    <t>Ingeniería de Moldes Plásticos</t>
-  </si>
-  <si>
     <t>Tecnologia da Mídia Impressa</t>
   </si>
   <si>
     <t>Print Media Technology</t>
   </si>
   <si>
-    <t>Tecnología de Medios Impresos</t>
-  </si>
-  <si>
-    <t>Reparação de Carrocerias de Veículos</t>
-  </si>
-  <si>
-    <t>Autobody Repair</t>
-  </si>
-  <si>
-    <t>Reparación de Carrocerías de Vehículos</t>
-  </si>
-  <si>
-    <t>Manutenção de Aeronaves</t>
-  </si>
-  <si>
-    <t>Aircraft Maintenance</t>
-  </si>
-  <si>
-    <t>Mantenimiento de Aeronaves</t>
-  </si>
-  <si>
     <t>Eletricidade Industrial</t>
   </si>
   <si>
@@ -2209,60 +2146,18 @@
     <t>Plastering and Drywall Systems</t>
   </si>
   <si>
-    <t>Sistema de Yeso y Drywall</t>
-  </si>
-  <si>
-    <t>Pintura e Decoração</t>
-  </si>
-  <si>
-    <t>Painting and Decorating</t>
-  </si>
-  <si>
-    <t>Pintura y Decoración</t>
-  </si>
-  <si>
-    <t>Marcenaria de estruturas</t>
-  </si>
-  <si>
-    <t>Joinery</t>
-  </si>
-  <si>
-    <t>Carpintería</t>
-  </si>
-  <si>
-    <t>Carpintaria</t>
-  </si>
-  <si>
-    <t>Carpentry</t>
-  </si>
-  <si>
     <t>Cabeleireiro</t>
   </si>
   <si>
     <t>Ladies/Mens Hairdressing</t>
   </si>
   <si>
-    <t>Peluquería de Mujeres/Hombres</t>
-  </si>
-  <si>
-    <t>Terapia Estética</t>
-  </si>
-  <si>
-    <t>Beauty Therapy</t>
-  </si>
-  <si>
-    <t>Terapia de Belleza</t>
-  </si>
-  <si>
     <t>Tecnologia da Moda</t>
   </si>
   <si>
     <t>Fashion Technology</t>
   </si>
   <si>
-    <t>Diseño de Modas</t>
-  </si>
-  <si>
     <t>Cozinha</t>
   </si>
   <si>
@@ -2275,87 +2170,15 @@
     <t>Restaurant Service</t>
   </si>
   <si>
-    <t>Pintura Automotiva</t>
-  </si>
-  <si>
-    <t>Car Painting</t>
-  </si>
-  <si>
-    <t>Pintura de Carros</t>
-  </si>
-  <si>
-    <t>Jardinagem e Paisagismo</t>
-  </si>
-  <si>
-    <t>Landscape Gardening</t>
-  </si>
-  <si>
-    <t>Jardinería</t>
-  </si>
-  <si>
     <t>Cuidador de Pessoas</t>
   </si>
   <si>
     <t>Health and Social Care</t>
   </si>
   <si>
-    <t>Cuidados/ Salud</t>
-  </si>
-  <si>
-    <t>Serralheria</t>
-  </si>
-  <si>
-    <t>Construction Metal Work</t>
-  </si>
-  <si>
-    <t>Trabajo en Construcción de Metal</t>
-  </si>
-  <si>
-    <t>Caldeiraria</t>
-  </si>
-  <si>
-    <t>Sheet Metal Technology</t>
-  </si>
-  <si>
-    <t>Tecnologia de Laminación Metalica</t>
-  </si>
-  <si>
-    <t>Desafio de Aplicativos Móveis</t>
-  </si>
-  <si>
     <t>Mobile Apps Challenge</t>
   </si>
   <si>
-    <t>Desafío de Aplicaciones Móviles</t>
-  </si>
-  <si>
-    <t>Floricultura</t>
-  </si>
-  <si>
-    <t>Floristry</t>
-  </si>
-  <si>
-    <t>Floristeria</t>
-  </si>
-  <si>
-    <t>Modelagem de Protótipos</t>
-  </si>
-  <si>
-    <t>Prototype Modelling</t>
-  </si>
-  <si>
-    <t>Modelado de Prototipo</t>
-  </si>
-  <si>
-    <t>Merchandising Visual e Vitrinismo</t>
-  </si>
-  <si>
-    <t>Visual Merchandising/ Window Dressing</t>
-  </si>
-  <si>
-    <t>Merchandising Visual/ Vitrinismo</t>
-  </si>
-  <si>
     <t>Confecção de Roupas</t>
   </si>
   <si>
@@ -2401,9 +2224,6 @@
     <t>Desarrollo de aplicaciones móviles abarca el diseño y desarrollo de soluciones de software para dispositivos móviles, como teléfonos inteligentes y tabletas con originalidad, innovación y creatividad.</t>
   </si>
   <si>
-    <t>what_they_do</t>
-  </si>
-  <si>
     <t>Implicala production of printed material using an offset printing sheets , along with a digital printing machine and other equipment to the finished printed products , printing is responsible for print and produce all the material in the printing business .</t>
   </si>
   <si>
@@ -2464,1570 +2284,7 @@
     <t>Desenvolvimento de aplicativos móveis inclui a concepção e desenvolvimento de soluções de software para dispositivos móveis, como smartphones e tablets com originalidade, inovação e criatividade.</t>
   </si>
   <si>
-    <t>pais_en</t>
-  </si>
-  <si>
-    <t>pais_es</t>
-  </si>
-  <si>
-    <t>pais_br</t>
-  </si>
-  <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>AFGHANISTAN</t>
-  </si>
-  <si>
-    <t>AFGANISTÁN</t>
-  </si>
-  <si>
-    <t>Afeganistão</t>
-  </si>
-  <si>
-    <t>SOUTH AFRICA</t>
-  </si>
-  <si>
-    <t>SUD ÁFRICA</t>
-  </si>
-  <si>
-    <t>África do Sul</t>
-  </si>
-  <si>
-    <t>Akrotiri</t>
-  </si>
-  <si>
-    <t>ALBANIA</t>
-  </si>
-  <si>
-    <t>Albânia</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>ALEMANIA</t>
-  </si>
-  <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>ANDORRA</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>ANGOLA</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguila</t>
-  </si>
-  <si>
-    <t>Antárctida</t>
-  </si>
-  <si>
-    <t>Antígua e Barbuda</t>
-  </si>
-  <si>
-    <t>Antilhas Neerlandesas</t>
-  </si>
-  <si>
-    <t>SAUDI ARABIA</t>
-  </si>
-  <si>
-    <t>ARABIA SAUDITA</t>
-  </si>
-  <si>
-    <t>Arábia Saudita</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>ALGERIA</t>
-  </si>
-  <si>
-    <t>ARGELIA</t>
-  </si>
-  <si>
-    <t>Argélia</t>
-  </si>
-  <si>
-    <t>ARGENTINA</t>
-  </si>
-  <si>
-    <t>ARMENIA</t>
-  </si>
-  <si>
-    <t>Arménia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>AUSTRALIA</t>
-  </si>
-  <si>
-    <t>Austrália</t>
-  </si>
-  <si>
-    <t>AUSTRIA</t>
-  </si>
-  <si>
-    <t>Áustria</t>
-  </si>
-  <si>
-    <t>AZERBAIJAN</t>
-  </si>
-  <si>
-    <t>AZERBAYÁN</t>
-  </si>
-  <si>
-    <t>Azerbaijão</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BANGLADESH</t>
-  </si>
-  <si>
-    <t>Bangladeche</t>
-  </si>
-  <si>
-    <t>BARBADOS</t>
-  </si>
-  <si>
-    <t>BAHRAIN</t>
-  </si>
-  <si>
-    <t>BAHREIN</t>
-  </si>
-  <si>
-    <t>Barém</t>
-  </si>
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>BÉLGICA</t>
-  </si>
-  <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
-    <t>BELIZE</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>BENIN</t>
-  </si>
-  <si>
-    <t>BENÍN</t>
-  </si>
-  <si>
-    <t>Benim</t>
-  </si>
-  <si>
-    <t>BERMUDA</t>
-  </si>
-  <si>
-    <t>Bermudas</t>
-  </si>
-  <si>
-    <t>BELARUS</t>
-  </si>
-  <si>
-    <t>BIELORRUSIA</t>
-  </si>
-  <si>
-    <t>Bielorrússia</t>
-  </si>
-  <si>
-    <t>Birmânia</t>
-  </si>
-  <si>
-    <t>BOLIVIA</t>
-  </si>
-  <si>
-    <t>Bolívia</t>
-  </si>
-  <si>
-    <t>BOSNIA AND HERZEGOVINA</t>
-  </si>
-  <si>
-    <t>BOSNIA HERZEGOVINA</t>
-  </si>
-  <si>
-    <t>Bósnia e Herzegovina</t>
-  </si>
-  <si>
-    <t>ECUADOR</t>
-  </si>
-  <si>
-    <t>Equador</t>
-  </si>
-  <si>
-    <t>ERITREA</t>
-  </si>
-  <si>
-    <t>Eritreia</t>
-  </si>
-  <si>
-    <t>SLOVAKIA</t>
-  </si>
-  <si>
-    <t>ESLOVAQUIA</t>
-  </si>
-  <si>
-    <t>Eslováquia</t>
-  </si>
-  <si>
-    <t>SLOVENIA</t>
-  </si>
-  <si>
-    <t>ESLOVENIA</t>
-  </si>
-  <si>
-    <t>Eslovénia</t>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
-    <t>ESPAÑA</t>
-  </si>
-  <si>
-    <t>Espanha</t>
-  </si>
-  <si>
-    <t>UNITED STATES</t>
-  </si>
-  <si>
-    <t>ESTADOS UNIDOS</t>
-  </si>
-  <si>
-    <t>ESTONIA</t>
-  </si>
-  <si>
-    <t>Estónia</t>
-  </si>
-  <si>
-    <t>ETHIOPIA</t>
-  </si>
-  <si>
-    <t>ETIOPÍA</t>
-  </si>
-  <si>
-    <t>Etiópia</t>
-  </si>
-  <si>
-    <t>Faroé</t>
-  </si>
-  <si>
-    <t>FIJI</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>PHILIPPINES</t>
-  </si>
-  <si>
-    <t>FILIPINAS</t>
-  </si>
-  <si>
-    <t>Filipinas</t>
-  </si>
-  <si>
-    <t>FINLAND</t>
-  </si>
-  <si>
-    <t>FINLANDIA</t>
-  </si>
-  <si>
-    <t>Finlândia</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>FRANCIA</t>
-  </si>
-  <si>
-    <t>França</t>
-  </si>
-  <si>
-    <t>GABON</t>
-  </si>
-  <si>
-    <t>GABÓN</t>
-  </si>
-  <si>
-    <t>Gabão</t>
-  </si>
-  <si>
-    <t>GAMBIA</t>
-  </si>
-  <si>
-    <t>Gâmbia</t>
-  </si>
-  <si>
-    <t>GHANA</t>
-  </si>
-  <si>
-    <t>Gana</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>Geórgia</t>
-  </si>
-  <si>
-    <t>BOTSWANA</t>
-  </si>
-  <si>
-    <t>Botsuana</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>BULGARIA</t>
-  </si>
-  <si>
-    <t>Bulgária</t>
-  </si>
-  <si>
-    <t>BURKINA FASO</t>
-  </si>
-  <si>
-    <t>Burquina Faso</t>
-  </si>
-  <si>
-    <t>Burúndi</t>
-  </si>
-  <si>
-    <t>BHUTAN</t>
-  </si>
-  <si>
-    <t>Butão</t>
-  </si>
-  <si>
-    <t>CAPE VERDE</t>
-  </si>
-  <si>
-    <t>CABO VERDE</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>CAMEROON</t>
-  </si>
-  <si>
-    <t>CAMERÚN</t>
-  </si>
-  <si>
-    <t>Camarões</t>
-  </si>
-  <si>
-    <t>CAMBODIA</t>
-  </si>
-  <si>
-    <t>CAMBOYA</t>
-  </si>
-  <si>
-    <t>Camboja</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
-  <si>
-    <t>CANADÁ</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
-    <t>QATAR</t>
-  </si>
-  <si>
-    <t>Catar</t>
-  </si>
-  <si>
-    <t>KAZAKHSTAN</t>
-  </si>
-  <si>
-    <t>KAZAJASTÁN</t>
-  </si>
-  <si>
-    <t>Cazaquistão</t>
-  </si>
-  <si>
-    <t>CHAD</t>
-  </si>
-  <si>
-    <t>Chade</t>
-  </si>
-  <si>
-    <t>CHILE</t>
-  </si>
-  <si>
-    <t>CHINA</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CYPRUS</t>
-  </si>
-  <si>
-    <t>CHIPRE</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t>Colômbia</t>
-  </si>
-  <si>
-    <t>COMOROS</t>
-  </si>
-  <si>
-    <t>COMORES</t>
-  </si>
-  <si>
-    <t>Comores</t>
-  </si>
-  <si>
-    <t>Congo-Brazzaville</t>
-  </si>
-  <si>
-    <t>Congo-Kinshasa</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>KOREA NORTH</t>
-  </si>
-  <si>
-    <t>COREA DEL NORTE</t>
-  </si>
-  <si>
-    <t>Coreia do Norte</t>
-  </si>
-  <si>
-    <t>KOREA SOUTH</t>
-  </si>
-  <si>
-    <t>COREA DEL SUR</t>
-  </si>
-  <si>
-    <t>Coreia do Sul</t>
-  </si>
-  <si>
-    <t>IVORY COAST</t>
-  </si>
-  <si>
-    <t>COSTA DE MARFIL</t>
-  </si>
-  <si>
-    <t>Costa do Marfim</t>
-  </si>
-  <si>
-    <t>COSTA RICA</t>
-  </si>
-  <si>
-    <t>CROATIA</t>
-  </si>
-  <si>
-    <t>CROACIA</t>
-  </si>
-  <si>
-    <t>Croácia</t>
-  </si>
-  <si>
-    <t>CUBA</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Dhekelia</t>
-  </si>
-  <si>
-    <t>DENMARK</t>
-  </si>
-  <si>
-    <t>DINAMARCA</t>
-  </si>
-  <si>
-    <t>Dinamarca</t>
-  </si>
-  <si>
-    <t>DOMINICA</t>
-  </si>
-  <si>
-    <t>Domínica</t>
-  </si>
-  <si>
-    <t>EGYPT</t>
-  </si>
-  <si>
-    <t>EGIPTO</t>
-  </si>
-  <si>
-    <t>Egipto</t>
-  </si>
-  <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Geórgia do Sul e Sandwich do Sul</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>GRENADA</t>
-  </si>
-  <si>
-    <t>GRANADA</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>GREECE</t>
-  </si>
-  <si>
-    <t>GRECIA</t>
-  </si>
-  <si>
-    <t>Grécia</t>
-  </si>
-  <si>
-    <t>GREENLAND</t>
-  </si>
-  <si>
-    <t>GROENLANDIA</t>
-  </si>
-  <si>
-    <t>Gronelândia</t>
-  </si>
-  <si>
-    <t>Guame</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>GUYANA</t>
-  </si>
-  <si>
-    <t>GUAYANA</t>
-  </si>
-  <si>
-    <t>Guiana</t>
-  </si>
-  <si>
-    <t>GUINEA</t>
-  </si>
-  <si>
-    <t>Guiné</t>
-  </si>
-  <si>
-    <t>EQUATORIAL GUINEA</t>
-  </si>
-  <si>
-    <t>GUINEA ECUATORIAL</t>
-  </si>
-  <si>
-    <t>Guiné Equatorial</t>
-  </si>
-  <si>
-    <t>GUINEA-BISSAU</t>
-  </si>
-  <si>
-    <t>Guiné-Bissau</t>
-  </si>
-  <si>
-    <t>HAITI</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HONDURAS</t>
-  </si>
-  <si>
-    <t>HONG KONG</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>HUNGARY</t>
-  </si>
-  <si>
-    <t>HUNGRÍA</t>
-  </si>
-  <si>
-    <t>Hungria</t>
-  </si>
-  <si>
-    <t>YEMEN</t>
-  </si>
-  <si>
-    <t>Iémen</t>
-  </si>
-  <si>
-    <t>Ilha Bouvet</t>
-  </si>
-  <si>
-    <t>Ilha do Natal</t>
-  </si>
-  <si>
-    <t>Ilha Norfolk</t>
-  </si>
-  <si>
-    <t>Ilhas Caimão</t>
-  </si>
-  <si>
-    <t>Ilhas Cook</t>
-  </si>
-  <si>
-    <t>Ilhas dos Cocos</t>
-  </si>
-  <si>
-    <t>Ilhas Falkland</t>
-  </si>
-  <si>
-    <t>Ilhas Heard e McDonald</t>
-  </si>
-  <si>
-    <t>Ilhas Marshall</t>
-  </si>
-  <si>
-    <t>Ilhas Salomão</t>
-  </si>
-  <si>
-    <t>Ilhas Turcas e Caicos</t>
-  </si>
-  <si>
-    <t>Ilhas Virgens Americanas</t>
-  </si>
-  <si>
-    <t>Ilhas Virgens Britânicas</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>Índia</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>INDONESIA</t>
-  </si>
-  <si>
-    <t>Indonésia</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>MÉXICO</t>
-  </si>
-  <si>
-    <t>MICRONESIA</t>
-  </si>
-  <si>
-    <t>Micronésia</t>
-  </si>
-  <si>
-    <t>MOZAMBIQUE</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>MOLDOVA</t>
-  </si>
-  <si>
-    <t>MOLDOVIA</t>
-  </si>
-  <si>
-    <t>Moldávia</t>
-  </si>
-  <si>
-    <t>MONACO</t>
-  </si>
-  <si>
-    <t>MÓNACO</t>
-  </si>
-  <si>
-    <t>Mónaco</t>
-  </si>
-  <si>
-    <t>MONGOLIA</t>
-  </si>
-  <si>
-    <t>Mongólia</t>
-  </si>
-  <si>
-    <t>Monserrate</t>
-  </si>
-  <si>
-    <t>MONTENEGRO</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Mundo</t>
-  </si>
-  <si>
-    <t>NAMIBIA</t>
-  </si>
-  <si>
-    <t>Namíbia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>NEPAL</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NICARAGUA</t>
-  </si>
-  <si>
-    <t>Nicarágua</t>
-  </si>
-  <si>
-    <t>NIGER</t>
-  </si>
-  <si>
-    <t>Níger</t>
-  </si>
-  <si>
-    <t>NIGERIA</t>
-  </si>
-  <si>
-    <t>Nigéria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>NORWAY</t>
-  </si>
-  <si>
-    <t>NORUEGA</t>
-  </si>
-  <si>
-    <t>Noruega</t>
-  </si>
-  <si>
-    <t>IRAN</t>
-  </si>
-  <si>
-    <t>IRÁN</t>
-  </si>
-  <si>
-    <t>Irão</t>
-  </si>
-  <si>
-    <t>IRAQ</t>
-  </si>
-  <si>
-    <t>Iraque</t>
-  </si>
-  <si>
-    <t>IRELAND</t>
-  </si>
-  <si>
-    <t>IRLANDA</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>ICELAND</t>
-  </si>
-  <si>
-    <t>ISLANDIA</t>
-  </si>
-  <si>
-    <t>Islândia</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>ITALIA</t>
-  </si>
-  <si>
-    <t>Itália</t>
-  </si>
-  <si>
-    <t>JAMAICA</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>JAPAN</t>
-  </si>
-  <si>
-    <t>JAPÓN</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>DJIBOUTI</t>
-  </si>
-  <si>
-    <t>Jibuti</t>
-  </si>
-  <si>
-    <t>JORDAN</t>
-  </si>
-  <si>
-    <t>JORDANIA</t>
-  </si>
-  <si>
-    <t>Jordânia</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>LAOS</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>LESOTHO</t>
-  </si>
-  <si>
-    <t>LESOTO</t>
-  </si>
-  <si>
-    <t>Lesoto</t>
-  </si>
-  <si>
-    <t>LATVIA</t>
-  </si>
-  <si>
-    <t>LETONIA</t>
-  </si>
-  <si>
-    <t>Letónia</t>
-  </si>
-  <si>
-    <t>LEBANON</t>
-  </si>
-  <si>
-    <t>LÍBANO</t>
-  </si>
-  <si>
-    <t>Líbano</t>
-  </si>
-  <si>
-    <t>LIBERIA</t>
-  </si>
-  <si>
-    <t>Libéria</t>
-  </si>
-  <si>
-    <t>LIBYAN ARAB JAMAHIRIYA</t>
-  </si>
-  <si>
-    <t>LIBIA</t>
-  </si>
-  <si>
-    <t>Líbia</t>
-  </si>
-  <si>
-    <t>LIECHTENSTEIN</t>
-  </si>
-  <si>
-    <t>Listenstaine</t>
-  </si>
-  <si>
-    <t>LITHUANIA</t>
-  </si>
-  <si>
-    <t>LITUANIA</t>
-  </si>
-  <si>
-    <t>Lituânia</t>
-  </si>
-  <si>
-    <t>LUXEMBOURG</t>
-  </si>
-  <si>
-    <t>LUXEMBURGO</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>MACAO</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>MACEDONIA</t>
-  </si>
-  <si>
-    <t>Macedónia</t>
-  </si>
-  <si>
-    <t>MADAGASCAR</t>
-  </si>
-  <si>
-    <t>Madagáscar</t>
-  </si>
-  <si>
-    <t>MALAYSIA</t>
-  </si>
-  <si>
-    <t>MALASIA</t>
-  </si>
-  <si>
-    <t>Malásia</t>
-  </si>
-  <si>
-    <t>Malávi</t>
-  </si>
-  <si>
-    <t>MALDIVES</t>
-  </si>
-  <si>
-    <t>MALDIVAS</t>
-  </si>
-  <si>
-    <t>Maldivas</t>
-  </si>
-  <si>
-    <t>MALI</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>MALTA</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Man, Isle of</t>
-  </si>
-  <si>
-    <t>Marianas do Norte</t>
-  </si>
-  <si>
-    <t>MOROCCO</t>
-  </si>
-  <si>
-    <t>MARRUECOS</t>
-  </si>
-  <si>
-    <t>Marrocos</t>
-  </si>
-  <si>
-    <t>MAURITIUS</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>Maurícia</t>
-  </si>
-  <si>
-    <t>MAURITANIA</t>
-  </si>
-  <si>
-    <t>Mauritânia</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>NEW CALEDONIA</t>
-  </si>
-  <si>
-    <t>NUEVA CALEDONIA</t>
-  </si>
-  <si>
-    <t>Nova Caledónia</t>
-  </si>
-  <si>
-    <t>NEW ZEALAND</t>
-  </si>
-  <si>
-    <t>NUEVA ZELANDA</t>
-  </si>
-  <si>
-    <t>Nova Zelândia</t>
-  </si>
-  <si>
-    <t>OMAN</t>
-  </si>
-  <si>
-    <t>OMÁN</t>
-  </si>
-  <si>
-    <t>Omã</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>NETHERLANDS</t>
-  </si>
-  <si>
-    <t>HOLANDA</t>
-  </si>
-  <si>
-    <t>Países Baixos</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>PANAMA</t>
-  </si>
-  <si>
-    <t>PANAMÁ</t>
-  </si>
-  <si>
-    <t>Papua-Nova Guiné</t>
-  </si>
-  <si>
-    <t>PAKISTAN</t>
-  </si>
-  <si>
-    <t>PAKISTÁN</t>
-  </si>
-  <si>
-    <t>Paquistão</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>PARAGUAY</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>Pitcairn</t>
-  </si>
-  <si>
-    <t>FRENCH POLYNESIA</t>
-  </si>
-  <si>
-    <t>POLINESIA FRANCESA</t>
-  </si>
-  <si>
-    <t>Polinésia Francesa</t>
-  </si>
-  <si>
-    <t>POLAND</t>
-  </si>
-  <si>
-    <t>POLONIA</t>
-  </si>
-  <si>
-    <t>Polónia</t>
-  </si>
-  <si>
-    <t>PUERTO RICO</t>
-  </si>
-  <si>
-    <t>Porto Rico</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>KENYA</t>
-  </si>
-  <si>
-    <t>Quénia</t>
-  </si>
-  <si>
-    <t>KYRGYZSTAN</t>
-  </si>
-  <si>
-    <t>KYRGYZSTÁN</t>
-  </si>
-  <si>
-    <t>Quirguizistão</t>
-  </si>
-  <si>
-    <t>Quiribáti</t>
-  </si>
-  <si>
-    <t>UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>REINO UNIDO</t>
-  </si>
-  <si>
-    <t>Reino Unido</t>
-  </si>
-  <si>
-    <t>República Centro-Africana</t>
-  </si>
-  <si>
-    <t>CZECH REPUBLIC</t>
-  </si>
-  <si>
-    <t>REPÚBLICA CHECA</t>
-  </si>
-  <si>
-    <t>República Checa</t>
-  </si>
-  <si>
-    <t>DOMINICAN REPUBLIC</t>
-  </si>
-  <si>
-    <t>DOMINICANA REP.</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>ROMANIA</t>
-  </si>
-  <si>
-    <t>RUMANÍA</t>
-  </si>
-  <si>
-    <t>Roménia</t>
-  </si>
-  <si>
-    <t>RWANDA</t>
-  </si>
-  <si>
-    <t>RUANDA</t>
-  </si>
-  <si>
-    <t>Ruanda</t>
-  </si>
-  <si>
-    <t>RUSSIAN FEDERATION</t>
-  </si>
-  <si>
-    <t>RUSIA</t>
-  </si>
-  <si>
-    <t>Rússia</t>
-  </si>
-  <si>
-    <t>EL SALVADOR</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>SAMOA</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Samoa Americana</t>
-  </si>
-  <si>
-    <t>Santa Helena</t>
-  </si>
-  <si>
-    <t>Santa Lúcia</t>
-  </si>
-  <si>
-    <t>São Cristóvão e Neves</t>
-  </si>
-  <si>
-    <t>TURKMENISTAN</t>
-  </si>
-  <si>
-    <t>TURKMENISTÁN</t>
-  </si>
-  <si>
-    <t>Turquemenistão</t>
-  </si>
-  <si>
-    <t>TURKEY</t>
-  </si>
-  <si>
-    <t>TURQUÍA</t>
-  </si>
-  <si>
-    <t>Turquia</t>
-  </si>
-  <si>
-    <t>TUVALU</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>UKRAINE</t>
-  </si>
-  <si>
-    <t>UCRANIA</t>
-  </si>
-  <si>
-    <t>Ucrânia</t>
-  </si>
-  <si>
-    <t>UGANDA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>União Europeia</t>
-  </si>
-  <si>
-    <t>URUGUAY</t>
-  </si>
-  <si>
-    <t>Uruguai</t>
-  </si>
-  <si>
-    <t>UZBEKISTAN</t>
-  </si>
-  <si>
-    <t>UZBEKISTÁN</t>
-  </si>
-  <si>
-    <t>Usbequistão</t>
-  </si>
-  <si>
-    <t>VANUATU</t>
-  </si>
-  <si>
-    <t>VANUATÚ</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>HOLY SEE</t>
-  </si>
-  <si>
-    <t>VATICANO</t>
-  </si>
-  <si>
-    <t>Vaticano</t>
-  </si>
-  <si>
-    <t>VENEZUELA</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>VIETNAM</t>
-  </si>
-  <si>
-    <t>VIETNÁM</t>
-  </si>
-  <si>
-    <t>Vietname</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis e Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>São Marinho</t>
-  </si>
-  <si>
-    <t>São Pedro e Miquelon</t>
-  </si>
-  <si>
-    <t>SAO TOME AND PRINCIPE</t>
-  </si>
-  <si>
-    <t>São Tomé e Príncipe</t>
-  </si>
-  <si>
-    <t>São Vicente e Granadinas</t>
-  </si>
-  <si>
-    <t>Sara Ocidental</t>
-  </si>
-  <si>
-    <t>SEYCHELLES</t>
-  </si>
-  <si>
-    <t>Seicheles</t>
-  </si>
-  <si>
-    <t>SENEGAL</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>SIERRA LEONE</t>
-  </si>
-  <si>
-    <t>SIERRA LEONA</t>
-  </si>
-  <si>
-    <t>Serra Leoa</t>
-  </si>
-  <si>
-    <t>SERBIA</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>SINGAPORE</t>
-  </si>
-  <si>
-    <t>SINGAPUR</t>
-  </si>
-  <si>
-    <t>Singapura</t>
-  </si>
-  <si>
-    <t>SYRIA</t>
-  </si>
-  <si>
-    <t>SIRIA</t>
-  </si>
-  <si>
-    <t>Síria</t>
-  </si>
-  <si>
-    <t>SOMALIA</t>
-  </si>
-  <si>
-    <t>Somália</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>SRI LANKA</t>
-  </si>
-  <si>
-    <t>Sri Lanca</t>
-  </si>
-  <si>
-    <t>SWAZILAND</t>
-  </si>
-  <si>
-    <t>SWAZILANDIA</t>
-  </si>
-  <si>
-    <t>Suazilândia</t>
-  </si>
-  <si>
-    <t>SUDAN</t>
-  </si>
-  <si>
-    <t>SUDÁN</t>
-  </si>
-  <si>
-    <t>Sudão</t>
-  </si>
-  <si>
-    <t>SWEDEN</t>
-  </si>
-  <si>
-    <t>SUECIA</t>
-  </si>
-  <si>
-    <t>Suécia</t>
-  </si>
-  <si>
-    <t>SWITZERLAND</t>
-  </si>
-  <si>
-    <t>SUIZA</t>
-  </si>
-  <si>
-    <t>Suíça</t>
-  </si>
-  <si>
-    <t>SURINAME</t>
-  </si>
-  <si>
-    <t>SURINAM</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard e Jan Mayen</t>
-  </si>
-  <si>
-    <t>THAILAND</t>
-  </si>
-  <si>
-    <t>TAILANDIA</t>
-  </si>
-  <si>
-    <t>Tailândia</t>
-  </si>
-  <si>
-    <t>TAIWAN</t>
-  </si>
-  <si>
-    <t>TAIWÁN</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>TAJIKISTAN</t>
-  </si>
-  <si>
-    <t>TAJIKISTÁN</t>
-  </si>
-  <si>
-    <t>Tajiquistão</t>
-  </si>
-  <si>
-    <t>TANZANIA</t>
-  </si>
-  <si>
-    <t>Tanzânia</t>
-  </si>
-  <si>
-    <t>Território Britânico do Oceano Índico</t>
-  </si>
-  <si>
-    <t>Territórios Austrais Franceses</t>
-  </si>
-  <si>
-    <t>TIMOR-LESTE</t>
-  </si>
-  <si>
-    <t>TIMOR ESTE</t>
-  </si>
-  <si>
-    <t>Timor Leste</t>
-  </si>
-  <si>
-    <t>TOGO</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>TONGA</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TRINIDAD AND TOBAGO</t>
-  </si>
-  <si>
-    <t>TRINIDAD TOBAGO</t>
-  </si>
-  <si>
-    <t>Trindade e Tobago</t>
-  </si>
-  <si>
-    <t>TUNISIA</t>
-  </si>
-  <si>
-    <t>TÚNEZ</t>
-  </si>
-  <si>
-    <t>Tunísia</t>
-  </si>
-  <si>
-    <t>ZAMBIA</t>
-  </si>
-  <si>
-    <t>Zâmbia</t>
-  </si>
-  <si>
-    <t>ZIMBABWE</t>
-  </si>
-  <si>
-    <t>Zimbabué</t>
   </si>
   <si>
     <t>United States</t>
@@ -4091,13 +2348,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4169,25 +2420,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:P26"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Number" dataDxfId="18"/>
-    <tableColumn id="2" name="name_pt" dataDxfId="17"/>
-    <tableColumn id="4" name="name_en" dataDxfId="16"/>
-    <tableColumn id="6" name="name_es" dataDxfId="15"/>
-    <tableColumn id="3" name="description_pt" dataDxfId="14"/>
-    <tableColumn id="5" name="description_en" dataDxfId="13"/>
-    <tableColumn id="7" name="description_es" dataDxfId="12"/>
-    <tableColumn id="8" name="fields_of_work_pt" dataDxfId="11"/>
-    <tableColumn id="11" name="fields_of_work_en" dataDxfId="10"/>
-    <tableColumn id="14" name="fields_of_work_es" dataDxfId="9"/>
-    <tableColumn id="9" name="activities_pt" dataDxfId="8"/>
-    <tableColumn id="12" name="activities_en" dataDxfId="7"/>
-    <tableColumn id="15" name="activities_es" dataDxfId="6"/>
-    <tableColumn id="10" name="qualitites_pt" dataDxfId="5"/>
-    <tableColumn id="13" name="qualitites_en" dataDxfId="4"/>
-    <tableColumn id="16" name="qualitites_es" dataDxfId="3"/>
+    <tableColumn id="1" name="Number" dataDxfId="16"/>
+    <tableColumn id="2" name="name_pt" dataDxfId="15"/>
+    <tableColumn id="4" name="name_en" dataDxfId="14"/>
+    <tableColumn id="6" name="name_es" dataDxfId="13"/>
+    <tableColumn id="3" name="description_pt" dataDxfId="12"/>
+    <tableColumn id="5" name="description_en" dataDxfId="11"/>
+    <tableColumn id="7" name="description_es" dataDxfId="10"/>
+    <tableColumn id="8" name="fields_of_work_pt" dataDxfId="9"/>
+    <tableColumn id="11" name="fields_of_work_en" dataDxfId="8"/>
+    <tableColumn id="14" name="fields_of_work_es" dataDxfId="7"/>
+    <tableColumn id="9" name="activities_pt" dataDxfId="6"/>
+    <tableColumn id="12" name="activities_en" dataDxfId="5"/>
+    <tableColumn id="15" name="activities_es" dataDxfId="4"/>
+    <tableColumn id="10" name="qualitites_pt" dataDxfId="3"/>
+    <tableColumn id="13" name="qualitites_en" dataDxfId="2"/>
+    <tableColumn id="16" name="qualitites_es" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4205,45 +2456,13 @@
     <tableColumn id="5" name="image">
       <calculatedColumnFormula>TEXT(B2,"00") &amp; ".jpg"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="skill_category_id" dataDxfId="2"/>
+    <tableColumn id="8" name="skill_category_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D51" totalsRowShown="0">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="num"/>
-    <tableColumn id="2" name="ocupacao_br"/>
-    <tableColumn id="3" name="ocupacao_en"/>
-    <tableColumn id="4" name="ocupacao_es"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
-  <autoFilter ref="A1:E37"/>
-  <sortState ref="A2:E37">
-    <sortCondition ref="E1:E37"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Código"/>
-    <tableColumn id="2" name="Habilidad "/>
-    <tableColumn id="3" name="Área"/>
-    <tableColumn id="4" name="cat id" dataDxfId="1"/>
-    <tableColumn id="5" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F7" totalsRowShown="0">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
@@ -4258,7 +2477,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E259" totalsRowShown="0">
   <autoFilter ref="A1:E259"/>
   <tableColumns count="5">
@@ -4272,7 +2491,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E18" totalsRowShown="0">
   <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
@@ -4286,19 +2505,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C257" totalsRowShown="0">
-  <autoFilter ref="A1:C257"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="pais_en"/>
-    <tableColumn id="2" name="pais_es"/>
-    <tableColumn id="3" name="pais_br"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B180" totalsRowShown="0">
   <autoFilter ref="A1:B180"/>
   <tableColumns count="2">
@@ -6542,13 +4749,13 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E27" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ref="F27:F37" si="1">TEXT(B27,"00") &amp; ".jpg"</f>
@@ -6566,13 +4773,13 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="D28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E28" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -6590,13 +4797,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="D29" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E29" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -6614,13 +4821,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="D30" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E30" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -6638,13 +4845,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="D31" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E31" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -6662,13 +4869,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="D32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E32" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -6686,13 +4893,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="D33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E33" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -6710,13 +4917,13 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="D34" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E34" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -6734,13 +4941,13 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="D35" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E35" t="s">
-        <v>774</v>
+        <v>716</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -6755,16 +4962,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C36" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="D36" t="s">
-        <v>776</v>
+        <v>718</v>
       </c>
       <c r="E36" t="s">
-        <v>776</v>
+        <v>718</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -6779,16 +4986,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C37" t="s">
-        <v>763</v>
+        <v>715</v>
       </c>
       <c r="D37" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E37" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -6807,1429 +5014,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" t="s">
-        <v>710</v>
-      </c>
-      <c r="D9" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>712</v>
-      </c>
-      <c r="C12" t="s">
-        <v>713</v>
-      </c>
-      <c r="D12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>715</v>
-      </c>
-      <c r="C14" t="s">
-        <v>716</v>
-      </c>
-      <c r="D14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>718</v>
-      </c>
-      <c r="C15" t="s">
-        <v>719</v>
-      </c>
-      <c r="D15" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>721</v>
-      </c>
-      <c r="C20" t="s">
-        <v>722</v>
-      </c>
-      <c r="D20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>723</v>
-      </c>
-      <c r="C22" t="s">
-        <v>724</v>
-      </c>
-      <c r="D22" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>726</v>
-      </c>
-      <c r="C23" t="s">
-        <v>727</v>
-      </c>
-      <c r="D23" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>729</v>
-      </c>
-      <c r="C26" t="s">
-        <v>730</v>
-      </c>
-      <c r="D26" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>732</v>
-      </c>
-      <c r="C27" t="s">
-        <v>733</v>
-      </c>
-      <c r="D27" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>734</v>
-      </c>
-      <c r="C29" t="s">
-        <v>735</v>
-      </c>
-      <c r="D29" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>737</v>
-      </c>
-      <c r="C30" t="s">
-        <v>738</v>
-      </c>
-      <c r="D30" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>740</v>
-      </c>
-      <c r="C31" t="s">
-        <v>741</v>
-      </c>
-      <c r="D31" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>743</v>
-      </c>
-      <c r="C34" t="s">
-        <v>744</v>
-      </c>
-      <c r="D34" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>745</v>
-      </c>
-      <c r="C35" t="s">
-        <v>746</v>
-      </c>
-      <c r="D35" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>747</v>
-      </c>
-      <c r="C36" t="s">
-        <v>748</v>
-      </c>
-      <c r="D36" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>750</v>
-      </c>
-      <c r="C37" t="s">
-        <v>751</v>
-      </c>
-      <c r="D37" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>753</v>
-      </c>
-      <c r="C41" t="s">
-        <v>754</v>
-      </c>
-      <c r="D41" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>756</v>
-      </c>
-      <c r="C42" t="s">
-        <v>757</v>
-      </c>
-      <c r="D42" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>759</v>
-      </c>
-      <c r="C43" t="s">
-        <v>760</v>
-      </c>
-      <c r="D43" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>762</v>
-      </c>
-      <c r="C46" t="s">
-        <v>763</v>
-      </c>
-      <c r="D46" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>765</v>
-      </c>
-      <c r="C47" t="s">
-        <v>766</v>
-      </c>
-      <c r="D47" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>768</v>
-      </c>
-      <c r="C48" t="s">
-        <v>769</v>
-      </c>
-      <c r="D48" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>44</v>
-      </c>
-      <c r="B49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C49" t="s">
-        <v>772</v>
-      </c>
-      <c r="D49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>774</v>
-      </c>
-      <c r="C50" t="s">
-        <v>775</v>
-      </c>
-      <c r="D50" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>776</v>
-      </c>
-      <c r="C51" t="s">
-        <v>776</v>
-      </c>
-      <c r="D51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>673</v>
-      </c>
-      <c r="C4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C8" t="s">
-        <v>666</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C9" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>677</v>
-      </c>
-      <c r="C11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>668</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>678</v>
-      </c>
-      <c r="C13" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>679</v>
-      </c>
-      <c r="C16" t="s">
-        <v>668</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>666</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>680</v>
-      </c>
-      <c r="C18" t="s">
-        <v>668</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>669</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>681</v>
-      </c>
-      <c r="C20" t="s">
-        <v>670</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>682</v>
-      </c>
-      <c r="C21" t="s">
-        <v>633</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C22" t="s">
-        <v>668</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>684</v>
-      </c>
-      <c r="C23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>685</v>
-      </c>
-      <c r="C24" t="s">
-        <v>669</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>666</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>666</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>690</v>
-      </c>
-      <c r="C27" t="s">
-        <v>667</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>691</v>
-      </c>
-      <c r="C28" t="s">
-        <v>666</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>692</v>
-      </c>
-      <c r="C29" t="s">
-        <v>668</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>693</v>
-      </c>
-      <c r="C30" t="s">
-        <v>670</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>694</v>
-      </c>
-      <c r="C31" t="s">
-        <v>669</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>695</v>
-      </c>
-      <c r="C32" t="s">
-        <v>670</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>696</v>
-      </c>
-      <c r="C33" t="s">
-        <v>670</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>697</v>
-      </c>
-      <c r="C34" t="s">
-        <v>670</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>698</v>
-      </c>
-      <c r="C35" t="s">
-        <v>669</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>699</v>
-      </c>
-      <c r="B36" t="s">
-        <v>700</v>
-      </c>
-      <c r="C36" t="s">
-        <v>670</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>701</v>
-      </c>
-      <c r="B37" t="s">
-        <v>702</v>
-      </c>
-      <c r="C37" t="s">
-        <v>667</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <f>MATCH(Table1[[#This Row],[Código]],Table5[Number],0)</f>
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8391,11 +5175,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12251,13 +9037,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C227" t="s">
         <v>395</v>
       </c>
       <c r="D227" t="s">
-        <v>779</v>
+        <v>721</v>
       </c>
       <c r="E227">
         <v>11</v>
@@ -12268,13 +9054,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C228" t="s">
         <v>395</v>
       </c>
       <c r="D228" t="s">
-        <v>780</v>
+        <v>722</v>
       </c>
       <c r="E228">
         <v>19</v>
@@ -12285,13 +9071,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C229" t="s">
         <v>395</v>
       </c>
       <c r="D229" t="s">
-        <v>781</v>
+        <v>723</v>
       </c>
       <c r="E229">
         <v>21</v>
@@ -12302,13 +9088,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C230" t="s">
         <v>395</v>
       </c>
       <c r="D230" t="s">
-        <v>782</v>
+        <v>724</v>
       </c>
       <c r="E230">
         <v>29</v>
@@ -12319,13 +9105,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C231" t="s">
         <v>395</v>
       </c>
       <c r="D231" t="s">
-        <v>783</v>
+        <v>725</v>
       </c>
       <c r="E231">
         <v>31</v>
@@ -12336,13 +9122,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C232" t="s">
         <v>395</v>
       </c>
       <c r="D232" t="s">
-        <v>784</v>
+        <v>726</v>
       </c>
       <c r="E232">
         <v>34</v>
@@ -12353,13 +9139,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C233" t="s">
         <v>395</v>
       </c>
       <c r="D233" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="E233">
         <v>35</v>
@@ -12370,13 +9156,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C234" t="s">
         <v>395</v>
       </c>
       <c r="D234" t="s">
-        <v>786</v>
+        <v>728</v>
       </c>
       <c r="E234">
         <v>41</v>
@@ -12387,13 +9173,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C235" t="s">
         <v>395</v>
       </c>
       <c r="D235" t="s">
-        <v>787</v>
+        <v>729</v>
       </c>
       <c r="E235">
         <v>46</v>
@@ -12404,16 +9190,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C236" t="s">
         <v>395</v>
       </c>
       <c r="D236" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="E236" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -12421,16 +9207,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C237" t="s">
         <v>395</v>
       </c>
       <c r="D237" t="s">
-        <v>788</v>
+        <v>730</v>
       </c>
       <c r="E237" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -12438,13 +9224,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C238" t="s">
         <v>394</v>
       </c>
       <c r="D238" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
       <c r="E238">
         <v>11</v>
@@ -12455,13 +9241,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C239" t="s">
         <v>394</v>
       </c>
       <c r="D239" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
       <c r="E239">
         <v>19</v>
@@ -12472,13 +9258,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C240" t="s">
         <v>394</v>
       </c>
       <c r="D240" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="E240">
         <v>21</v>
@@ -12489,13 +9275,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C241" t="s">
         <v>394</v>
       </c>
       <c r="D241" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="E241">
         <v>29</v>
@@ -12506,13 +9292,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C242" t="s">
         <v>394</v>
       </c>
       <c r="D242" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
       <c r="E242">
         <v>31</v>
@@ -12523,13 +9309,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C243" t="s">
         <v>394</v>
       </c>
       <c r="D243" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
       <c r="E243">
         <v>34</v>
@@ -12540,13 +9326,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C244" t="s">
         <v>394</v>
       </c>
       <c r="D244" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
       <c r="E244">
         <v>35</v>
@@ -12557,13 +9343,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C245" t="s">
         <v>394</v>
       </c>
       <c r="D245" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
       <c r="E245">
         <v>41</v>
@@ -12574,13 +9360,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C246" t="s">
         <v>394</v>
       </c>
       <c r="D246" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="E246">
         <v>46</v>
@@ -12591,16 +9377,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C247" t="s">
         <v>394</v>
       </c>
       <c r="D247" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
       <c r="E247" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -12608,16 +9394,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C248" t="s">
         <v>394</v>
       </c>
       <c r="D248" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
       <c r="E248" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -12625,13 +9411,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C249" t="s">
         <v>392</v>
       </c>
       <c r="D249" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="E249">
         <v>11</v>
@@ -12642,13 +9428,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C250" t="s">
         <v>392</v>
       </c>
       <c r="D250" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="E250">
         <v>19</v>
@@ -12659,13 +9445,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C251" t="s">
         <v>392</v>
       </c>
       <c r="D251" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="E251">
         <v>21</v>
@@ -12676,13 +9462,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C252" t="s">
         <v>392</v>
       </c>
       <c r="D252" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
       <c r="E252">
         <v>29</v>
@@ -12693,13 +9479,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C253" t="s">
         <v>392</v>
       </c>
       <c r="D253" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="E253">
         <v>31</v>
@@ -12710,13 +9496,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C254" t="s">
         <v>392</v>
       </c>
       <c r="D254" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
       <c r="E254">
         <v>34</v>
@@ -12727,13 +9513,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C255" t="s">
         <v>392</v>
       </c>
       <c r="D255" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
       <c r="E255">
         <v>35</v>
@@ -12744,13 +9530,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C256" t="s">
         <v>392</v>
       </c>
       <c r="D256" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
       <c r="E256">
         <v>41</v>
@@ -12761,13 +9547,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C257" t="s">
         <v>392</v>
       </c>
       <c r="D257" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
       <c r="E257">
         <v>46</v>
@@ -12778,16 +9564,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C258" t="s">
         <v>392</v>
       </c>
       <c r="D258" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
       <c r="E258" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -12795,16 +9581,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>789</v>
+        <v>396</v>
       </c>
       <c r="C259" t="s">
         <v>392</v>
       </c>
       <c r="D259" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
       <c r="E259" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -12815,11 +9601,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12849,10 +9635,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1336</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
-        <v>1337</v>
+        <v>757</v>
       </c>
       <c r="D2" t="s">
         <v>646</v>
@@ -12917,7 +9703,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>751</v>
       </c>
       <c r="C6" t="s">
         <v>650</v>
@@ -13019,7 +9805,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1332</v>
+        <v>752</v>
       </c>
       <c r="C12" t="s">
         <v>437</v>
@@ -13070,7 +9856,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1333</v>
+        <v>753</v>
       </c>
       <c r="C15" t="s">
         <v>658</v>
@@ -13087,7 +9873,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1334</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
         <v>659</v>
@@ -13104,7 +9890,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1335</v>
+        <v>755</v>
       </c>
       <c r="C17" t="s">
         <v>660</v>
@@ -13144,2856 +9930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C257"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B3" t="s">
-        <v>815</v>
-      </c>
-      <c r="C3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B4" t="s">
-        <v>818</v>
-      </c>
-      <c r="C4" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>820</v>
-      </c>
-      <c r="B5" t="s">
-        <v>820</v>
-      </c>
-      <c r="C5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>821</v>
-      </c>
-      <c r="B6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>823</v>
-      </c>
-      <c r="B7" t="s">
-        <v>824</v>
-      </c>
-      <c r="C7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>826</v>
-      </c>
-      <c r="B8" t="s">
-        <v>826</v>
-      </c>
-      <c r="C8" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>828</v>
-      </c>
-      <c r="B9" t="s">
-        <v>828</v>
-      </c>
-      <c r="C9" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>830</v>
-      </c>
-      <c r="B10" t="s">
-        <v>830</v>
-      </c>
-      <c r="C10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>831</v>
-      </c>
-      <c r="B11" t="s">
-        <v>831</v>
-      </c>
-      <c r="C11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>832</v>
-      </c>
-      <c r="B12" t="s">
-        <v>832</v>
-      </c>
-      <c r="C12" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>833</v>
-      </c>
-      <c r="B13" t="s">
-        <v>833</v>
-      </c>
-      <c r="C13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>834</v>
-      </c>
-      <c r="B14" t="s">
-        <v>835</v>
-      </c>
-      <c r="C14" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>837</v>
-      </c>
-      <c r="B15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C15" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>838</v>
-      </c>
-      <c r="B16" t="s">
-        <v>839</v>
-      </c>
-      <c r="C16" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B17" t="s">
-        <v>841</v>
-      </c>
-      <c r="C17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>842</v>
-      </c>
-      <c r="B18" t="s">
-        <v>842</v>
-      </c>
-      <c r="C18" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>844</v>
-      </c>
-      <c r="B19" t="s">
-        <v>844</v>
-      </c>
-      <c r="C19" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>845</v>
-      </c>
-      <c r="B20" t="s">
-        <v>845</v>
-      </c>
-      <c r="C20" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>846</v>
-      </c>
-      <c r="B21" t="s">
-        <v>846</v>
-      </c>
-      <c r="C21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>847</v>
-      </c>
-      <c r="B22" t="s">
-        <v>847</v>
-      </c>
-      <c r="C22" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>849</v>
-      </c>
-      <c r="B23" t="s">
-        <v>849</v>
-      </c>
-      <c r="C23" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>851</v>
-      </c>
-      <c r="B24" t="s">
-        <v>852</v>
-      </c>
-      <c r="C24" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>854</v>
-      </c>
-      <c r="B25" t="s">
-        <v>854</v>
-      </c>
-      <c r="C25" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>855</v>
-      </c>
-      <c r="B26" t="s">
-        <v>855</v>
-      </c>
-      <c r="C26" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>857</v>
-      </c>
-      <c r="B27" t="s">
-        <v>857</v>
-      </c>
-      <c r="C27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>858</v>
-      </c>
-      <c r="B28" t="s">
-        <v>859</v>
-      </c>
-      <c r="C28" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>861</v>
-      </c>
-      <c r="B29" t="s">
-        <v>862</v>
-      </c>
-      <c r="C29" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>864</v>
-      </c>
-      <c r="B30" t="s">
-        <v>864</v>
-      </c>
-      <c r="C30" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>866</v>
-      </c>
-      <c r="B31" t="s">
-        <v>867</v>
-      </c>
-      <c r="C31" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>869</v>
-      </c>
-      <c r="B32" t="s">
-        <v>869</v>
-      </c>
-      <c r="C32" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>871</v>
-      </c>
-      <c r="B33" t="s">
-        <v>872</v>
-      </c>
-      <c r="C33" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>874</v>
-      </c>
-      <c r="B34" t="s">
-        <v>874</v>
-      </c>
-      <c r="C34" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>875</v>
-      </c>
-      <c r="B35" t="s">
-        <v>875</v>
-      </c>
-      <c r="C35" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>877</v>
-      </c>
-      <c r="B36" t="s">
-        <v>878</v>
-      </c>
-      <c r="C36" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>880</v>
-      </c>
-      <c r="B37" t="s">
-        <v>880</v>
-      </c>
-      <c r="C37" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>882</v>
-      </c>
-      <c r="B38" t="s">
-        <v>882</v>
-      </c>
-      <c r="C38" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>884</v>
-      </c>
-      <c r="B39" t="s">
-        <v>885</v>
-      </c>
-      <c r="C39" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>887</v>
-      </c>
-      <c r="B40" t="s">
-        <v>888</v>
-      </c>
-      <c r="C40" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>890</v>
-      </c>
-      <c r="B41" t="s">
-        <v>891</v>
-      </c>
-      <c r="C41" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>893</v>
-      </c>
-      <c r="B42" t="s">
-        <v>894</v>
-      </c>
-      <c r="C42" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>895</v>
-      </c>
-      <c r="B43" t="s">
-        <v>895</v>
-      </c>
-      <c r="C43" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>897</v>
-      </c>
-      <c r="B44" t="s">
-        <v>898</v>
-      </c>
-      <c r="C44" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>900</v>
-      </c>
-      <c r="B45" t="s">
-        <v>900</v>
-      </c>
-      <c r="C45" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>901</v>
-      </c>
-      <c r="B46" t="s">
-        <v>901</v>
-      </c>
-      <c r="C46" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>903</v>
-      </c>
-      <c r="B47" t="s">
-        <v>904</v>
-      </c>
-      <c r="C47" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>906</v>
-      </c>
-      <c r="B48" t="s">
-        <v>907</v>
-      </c>
-      <c r="C48" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>909</v>
-      </c>
-      <c r="B49" t="s">
-        <v>910</v>
-      </c>
-      <c r="C49" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>912</v>
-      </c>
-      <c r="B50" t="s">
-        <v>913</v>
-      </c>
-      <c r="C50" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>915</v>
-      </c>
-      <c r="B51" t="s">
-        <v>915</v>
-      </c>
-      <c r="C51" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>917</v>
-      </c>
-      <c r="B52" t="s">
-        <v>917</v>
-      </c>
-      <c r="C52" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>919</v>
-      </c>
-      <c r="B53" t="s">
-        <v>919</v>
-      </c>
-      <c r="C53" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>920</v>
-      </c>
-      <c r="B54" t="s">
-        <v>920</v>
-      </c>
-      <c r="C54" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>922</v>
-      </c>
-      <c r="B55" t="s">
-        <v>922</v>
-      </c>
-      <c r="C55" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>924</v>
-      </c>
-      <c r="B56" t="s">
-        <v>924</v>
-      </c>
-      <c r="C56" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>925</v>
-      </c>
-      <c r="B57" t="s">
-        <v>925</v>
-      </c>
-      <c r="C57" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>927</v>
-      </c>
-      <c r="B58" t="s">
-        <v>927</v>
-      </c>
-      <c r="C58" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>929</v>
-      </c>
-      <c r="B59" t="s">
-        <v>929</v>
-      </c>
-      <c r="C59" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>930</v>
-      </c>
-      <c r="B60" t="s">
-        <v>930</v>
-      </c>
-      <c r="C60" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>932</v>
-      </c>
-      <c r="B61" t="s">
-        <v>933</v>
-      </c>
-      <c r="C61" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>935</v>
-      </c>
-      <c r="B62" t="s">
-        <v>936</v>
-      </c>
-      <c r="C62" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>938</v>
-      </c>
-      <c r="B63" t="s">
-        <v>939</v>
-      </c>
-      <c r="C63" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>941</v>
-      </c>
-      <c r="B64" t="s">
-        <v>942</v>
-      </c>
-      <c r="C64" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>944</v>
-      </c>
-      <c r="B65" t="s">
-        <v>944</v>
-      </c>
-      <c r="C65" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>946</v>
-      </c>
-      <c r="B66" t="s">
-        <v>947</v>
-      </c>
-      <c r="C66" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>949</v>
-      </c>
-      <c r="B67" t="s">
-        <v>949</v>
-      </c>
-      <c r="C67" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>951</v>
-      </c>
-      <c r="B68" t="s">
-        <v>951</v>
-      </c>
-      <c r="C68" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>952</v>
-      </c>
-      <c r="B69" t="s">
-        <v>952</v>
-      </c>
-      <c r="C69" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>954</v>
-      </c>
-      <c r="B70" t="s">
-        <v>955</v>
-      </c>
-      <c r="C70" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>957</v>
-      </c>
-      <c r="B71" t="s">
-        <v>957</v>
-      </c>
-      <c r="C71" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>958</v>
-      </c>
-      <c r="B72" t="s">
-        <v>958</v>
-      </c>
-      <c r="C72" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>960</v>
-      </c>
-      <c r="B73" t="s">
-        <v>961</v>
-      </c>
-      <c r="C73" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>963</v>
-      </c>
-      <c r="B74" t="s">
-        <v>963</v>
-      </c>
-      <c r="C74" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>964</v>
-      </c>
-      <c r="B75" t="s">
-        <v>964</v>
-      </c>
-      <c r="C75" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>965</v>
-      </c>
-      <c r="B76" t="s">
-        <v>965</v>
-      </c>
-      <c r="C76" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>966</v>
-      </c>
-      <c r="B77" t="s">
-        <v>967</v>
-      </c>
-      <c r="C77" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>969</v>
-      </c>
-      <c r="B78" t="s">
-        <v>970</v>
-      </c>
-      <c r="C78" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>972</v>
-      </c>
-      <c r="B79" t="s">
-        <v>973</v>
-      </c>
-      <c r="C79" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>975</v>
-      </c>
-      <c r="B80" t="s">
-        <v>975</v>
-      </c>
-      <c r="C80" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>976</v>
-      </c>
-      <c r="B81" t="s">
-        <v>977</v>
-      </c>
-      <c r="C81" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>979</v>
-      </c>
-      <c r="B82" t="s">
-        <v>979</v>
-      </c>
-      <c r="C82" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>981</v>
-      </c>
-      <c r="B83" t="s">
-        <v>981</v>
-      </c>
-      <c r="C83" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>982</v>
-      </c>
-      <c r="B84" t="s">
-        <v>983</v>
-      </c>
-      <c r="C84" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>985</v>
-      </c>
-      <c r="B85" t="s">
-        <v>985</v>
-      </c>
-      <c r="C85" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>987</v>
-      </c>
-      <c r="B86" t="s">
-        <v>988</v>
-      </c>
-      <c r="C86" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>990</v>
-      </c>
-      <c r="B87" t="s">
-        <v>990</v>
-      </c>
-      <c r="C87" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>991</v>
-      </c>
-      <c r="B88" t="s">
-        <v>991</v>
-      </c>
-      <c r="C88" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>992</v>
-      </c>
-      <c r="B89" t="s">
-        <v>992</v>
-      </c>
-      <c r="C89" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>993</v>
-      </c>
-      <c r="B90" t="s">
-        <v>994</v>
-      </c>
-      <c r="C90" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>996</v>
-      </c>
-      <c r="B91" t="s">
-        <v>997</v>
-      </c>
-      <c r="C91" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>999</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C94" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C101" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C121" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C181" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C185" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C186" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B180"/>
   <sheetViews>
